--- a/models/calculation engines/economic_overlay/outputs/mining_costs/costs_RMB-t_ROM_ore_before_per-t-ore_charges-sedimentary_bauxite.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/mining_costs/costs_RMB-t_ROM_ore_before_per-t-ore_charges-sedimentary_bauxite.xlsx
@@ -3784,1250 +3784,1250 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B105" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C105" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D105" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E105" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F105" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G105" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H105" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I105" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J105" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B106" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C106" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D106" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E106" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F106" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G106" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H106" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I106" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J106" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B107" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C107" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D107" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E107" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F107" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G107" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H107" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I107" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J107" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B108" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C108" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D108" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E108" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F108" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G108" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H108" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I108" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J108" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B109" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C109" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D109" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E109" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F109" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G109" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H109" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I109" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J109" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B110" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C110" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D110" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E110" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F110" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G110" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H110" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I110" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J110" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B111" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C111" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D111" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E111" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F111" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G111" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H111" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I111" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J111" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B112" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C112" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D112" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E112" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F112" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G112" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H112" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I112" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J112" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B113" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C113" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D113" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E113" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F113" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G113" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H113" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I113" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J113" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B114" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C114" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D114" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E114" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F114" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G114" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H114" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I114" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J114" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B115" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C115" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D115" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E115" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F115" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G115" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H115" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I115" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J115" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B116" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C116" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D116" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E116" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F116" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G116" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H116" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I116" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J116" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B117" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C117" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D117" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E117" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F117" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G117" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H117" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I117" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J117" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B118" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C118" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D118" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E118" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F118" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G118" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H118" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I118" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J118" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B119" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C119" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D119" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E119" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F119" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G119" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H119" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I119" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J119" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B120" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C120" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D120" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E120" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F120" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G120" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H120" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I120" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J120" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B121" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C121" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D121" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E121" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F121" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G121" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H121" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I121" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J121" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B122" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C122" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D122" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E122" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F122" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G122" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H122" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I122" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J122" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B123" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C123" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D123" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E123" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F123" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G123" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H123" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I123" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J123" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B124" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C124" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D124" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E124" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F124" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G124" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H124" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I124" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J124" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B125" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C125" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D125" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E125" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F125" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G125" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H125" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I125" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J125" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B126" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C126" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D126" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E126" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F126" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G126" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H126" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I126" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J126" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B127" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C127" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D127" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E127" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F127" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G127" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H127" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I127" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J127" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B128" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C128" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D128" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E128" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F128" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G128" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H128" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I128" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J128" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B129" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C129" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D129" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E129" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F129" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G129" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H129" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I129" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J129" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B130" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C130" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D130" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E130" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F130" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G130" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H130" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I130" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J130" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B131" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C131" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D131" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E131" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F131" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G131" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H131" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I131" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J131" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B132" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C132" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D132" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E132" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F132" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G132" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H132" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I132" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J132" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B133" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C133" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D133" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E133" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F133" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G133" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H133" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I133" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J133" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B134" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C134" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D134" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E134" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F134" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G134" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H134" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I134" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J134" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B135" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C135" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D135" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E135" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F135" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G135" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H135" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I135" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J135" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B136" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C136" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D136" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E136" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F136" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G136" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H136" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I136" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J136" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B137" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C137" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D137" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E137" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F137" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G137" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H137" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I137" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J137" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B138" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C138" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D138" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E138" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F138" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G138" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H138" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I138" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J138" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B139" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C139" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D139" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E139" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F139" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G139" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H139" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I139" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J139" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B140" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C140" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D140" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E140" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F140" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G140" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H140" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I140" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J140" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B141" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C141" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D141" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E141" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F141" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G141" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H141" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I141" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J141" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B142" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C142" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D142" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E142" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F142" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G142" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H142" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I142" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J142" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>31.33171338384386</v>
+        <v>16.3021472228724</v>
       </c>
       <c r="B143" t="n">
-        <v>97.9386783245774</v>
+        <v>50.09795341786098</v>
       </c>
       <c r="C143" t="n">
-        <v>182.1358388062466</v>
+        <v>91.96795783773388</v>
       </c>
       <c r="D143" t="n">
-        <v>185.1113995241619</v>
+        <v>133.1132357349561</v>
       </c>
       <c r="E143" t="n">
-        <v>215.6172453691024</v>
+        <v>142.5301089763919</v>
       </c>
       <c r="F143" t="n">
-        <v>246.1230912140429</v>
+        <v>151.9469822178277</v>
       </c>
       <c r="G143" t="n">
-        <v>276.6289370874555</v>
+        <v>161.3638554680526</v>
       </c>
       <c r="H143" t="n">
-        <v>307.1347829608682</v>
+        <v>170.7807287182775</v>
       </c>
       <c r="I143" t="n">
-        <v>337.6406288058087</v>
+        <v>180.1976019597133</v>
       </c>
       <c r="J143" t="n">
-        <v>357.0140533575999</v>
+        <v>187.6206087008836</v>
       </c>
     </row>
     <row r="144">

--- a/models/calculation engines/economic_overlay/outputs/mining_costs/costs_RMB-t_ROM_ore_before_per-t-ore_charges-sedimentary_bauxite.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/mining_costs/costs_RMB-t_ROM_ore_before_per-t-ore_charges-sedimentary_bauxite.xlsx
@@ -616,2690 +616,2690 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.96952915232075</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B6" t="n">
-        <v>83.91753608900733</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C6" t="n">
-        <v>155.5235870071754</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D6" t="n">
-        <v>184.6455190606023</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E6" t="n">
-        <v>209.8216536219604</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F6" t="n">
-        <v>234.9977881833185</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G6" t="n">
-        <v>260.1739227681744</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H6" t="n">
-        <v>285.3500573530303</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I6" t="n">
-        <v>310.5261919143883</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J6" t="n">
-        <v>327.5217683807806</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>26.96952915232075</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B7" t="n">
-        <v>83.91753608900733</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C7" t="n">
-        <v>155.5235870071754</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D7" t="n">
-        <v>184.6455190606023</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E7" t="n">
-        <v>209.8216536219604</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F7" t="n">
-        <v>234.9977881833185</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G7" t="n">
-        <v>260.1739227681744</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H7" t="n">
-        <v>285.3500573530303</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I7" t="n">
-        <v>310.5261919143883</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J7" t="n">
-        <v>327.5217683807806</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26.96952915232075</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B8" t="n">
-        <v>83.91753608900733</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C8" t="n">
-        <v>155.5235870071754</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D8" t="n">
-        <v>184.6455190606023</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E8" t="n">
-        <v>209.8216536219604</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F8" t="n">
-        <v>234.9977881833185</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G8" t="n">
-        <v>260.1739227681744</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H8" t="n">
-        <v>285.3500573530303</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I8" t="n">
-        <v>310.5261919143883</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J8" t="n">
-        <v>327.5217683807806</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26.96952915232075</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B9" t="n">
-        <v>83.91753608900733</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C9" t="n">
-        <v>155.5235870071754</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D9" t="n">
-        <v>184.6455190606023</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E9" t="n">
-        <v>209.8216536219604</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F9" t="n">
-        <v>234.9977881833185</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G9" t="n">
-        <v>260.1739227681744</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H9" t="n">
-        <v>285.3500573530303</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I9" t="n">
-        <v>310.5261919143883</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J9" t="n">
-        <v>327.5217683807806</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26.96952915232075</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B10" t="n">
-        <v>83.91753608900733</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C10" t="n">
-        <v>155.5235870071754</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D10" t="n">
-        <v>184.6455190606023</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E10" t="n">
-        <v>209.8216536219604</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F10" t="n">
-        <v>234.9977881833185</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G10" t="n">
-        <v>260.1739227681744</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H10" t="n">
-        <v>285.3500573530303</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I10" t="n">
-        <v>310.5261919143883</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J10" t="n">
-        <v>327.5217683807806</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25.32135891793466</v>
+        <v>25.3213479751256</v>
       </c>
       <c r="B11" t="n">
-        <v>78.74753354837125</v>
+        <v>78.7474984455957</v>
       </c>
       <c r="C11" t="n">
-        <v>145.8838248332913</v>
+        <v>145.8837583029444</v>
       </c>
       <c r="D11" t="n">
-        <v>172.5413691177672</v>
+        <v>172.5413320982646</v>
       </c>
       <c r="E11" t="n">
-        <v>195.2670179122483</v>
+        <v>195.2669623302457</v>
       </c>
       <c r="F11" t="n">
-        <v>217.9926667067295</v>
+        <v>217.9925925622269</v>
       </c>
       <c r="G11" t="n">
-        <v>240.7183155224213</v>
+        <v>240.7182228154187</v>
       </c>
       <c r="H11" t="n">
-        <v>263.4439643381131</v>
+        <v>263.4438530686105</v>
       </c>
       <c r="I11" t="n">
-        <v>286.1696131325942</v>
+        <v>286.1694833005916</v>
       </c>
       <c r="J11" t="n">
-        <v>301.4977950691277</v>
+        <v>301.4976547183751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35.21877378260822</v>
+        <v>35.21876342095865</v>
       </c>
       <c r="B12" t="n">
-        <v>110.1582762760318</v>
+        <v>110.1582427863905</v>
       </c>
       <c r="C12" t="n">
-        <v>204.9569268566873</v>
+        <v>204.9568630427215</v>
       </c>
       <c r="D12" t="n">
-        <v>219.2292773638879</v>
+        <v>219.2292738611472</v>
       </c>
       <c r="E12" t="n">
-        <v>256.7856365810082</v>
+        <v>256.785617726839</v>
       </c>
       <c r="F12" t="n">
-        <v>294.3419957981286</v>
+        <v>294.3419615925308</v>
       </c>
       <c r="G12" t="n">
-        <v>331.8983550503015</v>
+        <v>331.8983054932751</v>
       </c>
       <c r="H12" t="n">
-        <v>369.4547143024745</v>
+        <v>369.4546493940194</v>
       </c>
       <c r="I12" t="n">
-        <v>407.0110735195947</v>
+        <v>407.0109932597111</v>
       </c>
       <c r="J12" t="n">
-        <v>431.2929447323839</v>
+        <v>431.2928571648218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B13" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C13" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D13" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E13" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F13" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G13" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H13" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I13" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J13" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B14" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C14" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D14" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E14" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F14" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G14" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H14" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I14" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J14" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B15" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C15" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D15" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E15" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F15" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G15" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H15" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I15" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J15" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B16" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C16" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D16" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E16" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F16" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G16" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H16" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I16" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J16" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B17" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C17" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D17" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E17" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F17" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G17" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H17" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I17" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J17" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B18" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C18" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D18" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E18" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F18" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G18" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H18" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I18" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J18" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B19" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C19" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D19" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E19" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F19" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G19" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H19" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I19" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J19" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B20" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C20" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D20" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E20" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F20" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G20" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H20" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I20" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J20" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B21" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C21" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D21" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E21" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F21" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G21" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H21" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I21" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J21" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B22" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C22" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D22" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E22" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F22" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G22" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H22" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I22" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J22" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B23" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C23" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D23" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E23" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F23" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G23" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H23" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I23" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J23" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B24" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C24" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D24" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E24" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F24" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G24" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H24" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I24" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J24" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B25" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C25" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D25" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E25" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F25" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G25" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H25" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I25" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J25" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B26" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C26" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D26" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E26" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F26" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G26" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H26" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I26" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J26" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B27" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C27" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D27" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E27" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F27" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G27" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H27" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I27" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J27" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B28" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C28" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D28" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E28" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F28" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G28" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H28" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I28" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J28" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B29" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C29" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D29" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E29" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F29" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G29" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H29" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I29" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J29" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B30" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C30" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D30" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E30" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F30" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G30" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H30" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I30" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J30" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B31" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C31" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D31" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E31" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F31" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G31" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H31" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I31" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J31" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B32" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C32" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D32" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E32" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F32" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G32" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H32" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I32" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J32" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B33" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C33" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D33" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E33" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F33" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G33" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H33" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I33" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J33" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B34" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C34" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D34" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E34" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F34" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G34" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H34" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I34" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J34" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B35" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C35" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D35" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E35" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F35" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G35" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H35" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I35" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J35" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>25.70254271937486</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B36" t="n">
-        <v>79.93400033367831</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C36" t="n">
-        <v>148.0832348120169</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D36" t="n">
-        <v>175.5237212037276</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E36" t="n">
-        <v>198.7327211051583</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F36" t="n">
-        <v>221.941721006589</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G36" t="n">
-        <v>245.1507209296814</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H36" t="n">
-        <v>268.3597208527739</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I36" t="n">
-        <v>291.5687207542045</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J36" t="n">
-        <v>307.2422552227724</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B37" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C37" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D37" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E37" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F37" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G37" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H37" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I37" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J37" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B38" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C38" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D38" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E38" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F38" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G38" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H38" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I38" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J38" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B39" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C39" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D39" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E39" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F39" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G39" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H39" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I39" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J39" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B40" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C40" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D40" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E40" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F40" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G40" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H40" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I40" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J40" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B41" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C41" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D41" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E41" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F41" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G41" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H41" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I41" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J41" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B42" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C42" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D42" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E42" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F42" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G42" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H42" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I42" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J42" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B43" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C43" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D43" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E43" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F43" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G43" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H43" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I43" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J43" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B44" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C44" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D44" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E44" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F44" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G44" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H44" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I44" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J44" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B45" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C45" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D45" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E45" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F45" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G45" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H45" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I45" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J45" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B46" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C46" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D46" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E46" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F46" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G46" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H46" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I46" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J46" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B47" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C47" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D47" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E47" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F47" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G47" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H47" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I47" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J47" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B48" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C48" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D48" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E48" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F48" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G48" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H48" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I48" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J48" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B49" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C49" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D49" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E49" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F49" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G49" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H49" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I49" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J49" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B50" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C50" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D50" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E50" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F50" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G50" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H50" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I50" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J50" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B51" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C51" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D51" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E51" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F51" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G51" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H51" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I51" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J51" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B52" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C52" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D52" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E52" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F52" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G52" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H52" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I52" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J52" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B53" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C53" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D53" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E53" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F53" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G53" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H53" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I53" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J53" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27.21705316039256</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B54" t="n">
-        <v>84.807795918788</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C54" t="n">
-        <v>157.3415790036941</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D54" t="n">
-        <v>172.3894270002559</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E54" t="n">
-        <v>196.9632397761407</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F54" t="n">
-        <v>221.5370525520254</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G54" t="n">
-        <v>246.1108653508457</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H54" t="n">
-        <v>270.6846781496661</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I54" t="n">
-        <v>295.2584909255507</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J54" t="n">
-        <v>311.3341783566651</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27.75382586549026</v>
+        <v>27.75382871269638</v>
       </c>
       <c r="B55" t="n">
-        <v>86.41037695412044</v>
+        <v>86.41038584799719</v>
       </c>
       <c r="C55" t="n">
-        <v>160.2169645924582</v>
+        <v>160.2169811238316</v>
       </c>
       <c r="D55" t="n">
-        <v>189.823643626845</v>
+        <v>189.8236232303478</v>
       </c>
       <c r="E55" t="n">
-        <v>216.4716301519001</v>
+        <v>216.4716065443315</v>
       </c>
       <c r="F55" t="n">
-        <v>243.1196166769553</v>
+        <v>243.1195898583151</v>
       </c>
       <c r="G55" t="n">
-        <v>269.7676032268818</v>
+        <v>269.7675731971702</v>
       </c>
       <c r="H55" t="n">
-        <v>296.4155897768084</v>
+        <v>296.4155565360253</v>
       </c>
       <c r="I55" t="n">
-        <v>323.0635763018633</v>
+        <v>323.063539850009</v>
       </c>
       <c r="J55" t="n">
-        <v>341.004139107277</v>
+        <v>341.0040994443511</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27.75382586549026</v>
+        <v>27.75382871269638</v>
       </c>
       <c r="B56" t="n">
-        <v>86.41037695412044</v>
+        <v>86.41038584799719</v>
       </c>
       <c r="C56" t="n">
-        <v>160.2169645924582</v>
+        <v>160.2169811238316</v>
       </c>
       <c r="D56" t="n">
-        <v>189.823643626845</v>
+        <v>189.8236232303478</v>
       </c>
       <c r="E56" t="n">
-        <v>216.4716301519001</v>
+        <v>216.4716065443315</v>
       </c>
       <c r="F56" t="n">
-        <v>243.1196166769553</v>
+        <v>243.1195898583151</v>
       </c>
       <c r="G56" t="n">
-        <v>269.7676032268818</v>
+        <v>269.7675731971702</v>
       </c>
       <c r="H56" t="n">
-        <v>296.4155897768084</v>
+        <v>296.4155565360253</v>
       </c>
       <c r="I56" t="n">
-        <v>323.0635763018633</v>
+        <v>323.063539850009</v>
       </c>
       <c r="J56" t="n">
-        <v>341.004139107277</v>
+        <v>341.0040994443511</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>29.49545101117508</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B57" t="n">
-        <v>92.06321659433613</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C57" t="n">
-        <v>171.0203979913373</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D57" t="n">
-        <v>184.8446525275872</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E57" t="n">
-        <v>213.4260058732975</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F57" t="n">
-        <v>242.0073592190078</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G57" t="n">
-        <v>270.588712591394</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H57" t="n">
-        <v>299.1700659637804</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I57" t="n">
-        <v>327.7514193094905</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J57" t="n">
-        <v>346.3052408613717</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29.49545101117508</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B58" t="n">
-        <v>92.06321659433613</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C58" t="n">
-        <v>171.0203979913373</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D58" t="n">
-        <v>184.8446525275872</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E58" t="n">
-        <v>213.4260058732975</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F58" t="n">
-        <v>242.0073592190078</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G58" t="n">
-        <v>270.588712591394</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H58" t="n">
-        <v>299.1700659637804</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I58" t="n">
-        <v>327.7514193094905</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J58" t="n">
-        <v>346.3052408613717</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>29.49545101117508</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B59" t="n">
-        <v>92.06321659433613</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C59" t="n">
-        <v>171.0203979913373</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D59" t="n">
-        <v>184.8446525275872</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E59" t="n">
-        <v>213.4260058732975</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F59" t="n">
-        <v>242.0073592190078</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G59" t="n">
-        <v>270.588712591394</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H59" t="n">
-        <v>299.1700659637804</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I59" t="n">
-        <v>327.7514193094905</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J59" t="n">
-        <v>346.3052408613717</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29.49545101117508</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B60" t="n">
-        <v>92.06321659433613</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C60" t="n">
-        <v>171.0203979913373</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D60" t="n">
-        <v>184.8446525275872</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E60" t="n">
-        <v>213.4260058732975</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F60" t="n">
-        <v>242.0073592190078</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G60" t="n">
-        <v>270.588712591394</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H60" t="n">
-        <v>299.1700659637804</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I60" t="n">
-        <v>327.7514193094905</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J60" t="n">
-        <v>346.3052408613717</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29.49545101117508</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B61" t="n">
-        <v>92.06321659433613</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C61" t="n">
-        <v>171.0203979913373</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D61" t="n">
-        <v>184.8446525275872</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E61" t="n">
-        <v>213.4260058732975</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F61" t="n">
-        <v>242.0073592190078</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G61" t="n">
-        <v>270.588712591394</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H61" t="n">
-        <v>299.1700659637804</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I61" t="n">
-        <v>327.7514193094905</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J61" t="n">
-        <v>346.3052408613717</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B62" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C62" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D62" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E62" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F62" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G62" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H62" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I62" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J62" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B63" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C63" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D63" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E63" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F63" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G63" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H63" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I63" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J63" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B64" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C64" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D64" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E64" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F64" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G64" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H64" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I64" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J64" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B65" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C65" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D65" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E65" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F65" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G65" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H65" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I65" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J65" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B66" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C66" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D66" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E66" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F66" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G66" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H66" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I66" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J66" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B67" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C67" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D67" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E67" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F67" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G67" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H67" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I67" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J67" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B68" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C68" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D68" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E68" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F68" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G68" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H68" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I68" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J68" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B69" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C69" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D69" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E69" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F69" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G69" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H69" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I69" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J69" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B70" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C70" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D70" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E70" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F70" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G70" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H70" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I70" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J70" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B71" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C71" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D71" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E71" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F71" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G71" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H71" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I71" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J71" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B72" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C72" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D72" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E72" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F72" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G72" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H72" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I72" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J72" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B73" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C73" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D73" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E73" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F73" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G73" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H73" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I73" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J73" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B74" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C74" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D74" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E74" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F74" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G74" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H74" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I74" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J74" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B75" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C75" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D75" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E75" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F75" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G75" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H75" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I75" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J75" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B76" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C76" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D76" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E76" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F76" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G76" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H76" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I76" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J76" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B77" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C77" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D77" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E77" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F77" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G77" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H77" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I77" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J77" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B78" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C78" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D78" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E78" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F78" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G78" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H78" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I78" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J78" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B79" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C79" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D79" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E79" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F79" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G79" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H79" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I79" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J79" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B80" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C80" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D80" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E80" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F80" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G80" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H80" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I80" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J80" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B81" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C81" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D81" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E81" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F81" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G81" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H81" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I81" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J81" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B82" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C82" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D82" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E82" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F82" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G82" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H82" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I82" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J82" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>27.3522041645565</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B83" t="n">
-        <v>85.19816608192386</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C83" t="n">
-        <v>158.0228271342814</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D83" t="n">
-        <v>182.9498394836098</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E83" t="n">
-        <v>208.9264878839334</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F83" t="n">
-        <v>234.903136284257</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G83" t="n">
-        <v>260.8797847088255</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H83" t="n">
-        <v>286.856433133394</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I83" t="n">
-        <v>312.8330815337176</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J83" t="n">
-        <v>330.1545101518675</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>26.68458619789455</v>
+        <v>26.68458833938361</v>
       </c>
       <c r="B84" t="n">
-        <v>83.08712714444579</v>
+        <v>83.08713376351648</v>
       </c>
       <c r="C84" t="n">
-        <v>154.0632837708216</v>
+        <v>154.0632959758438</v>
       </c>
       <c r="D84" t="n">
-        <v>178.4674736041841</v>
+        <v>178.467471368713</v>
       </c>
       <c r="E84" t="n">
-        <v>203.3141054692455</v>
+        <v>203.3141021634172</v>
       </c>
       <c r="F84" t="n">
-        <v>228.1607373343069</v>
+        <v>228.1607329581214</v>
       </c>
       <c r="G84" t="n">
-        <v>253.0073692225584</v>
+        <v>253.0073637760158</v>
       </c>
       <c r="H84" t="n">
-        <v>277.8540011108099</v>
+        <v>277.8539945939102</v>
       </c>
       <c r="I84" t="n">
-        <v>302.7006329758712</v>
+        <v>302.7006253886143</v>
       </c>
       <c r="J84" t="n">
-        <v>319.2854487835168</v>
+        <v>319.2854401259028</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>26.68458619789455</v>
+        <v>26.68458833938361</v>
       </c>
       <c r="B85" t="n">
-        <v>83.08712714444579</v>
+        <v>83.08713376351648</v>
       </c>
       <c r="C85" t="n">
-        <v>154.0632837708216</v>
+        <v>154.0632959758438</v>
       </c>
       <c r="D85" t="n">
-        <v>178.4674736041841</v>
+        <v>178.467471368713</v>
       </c>
       <c r="E85" t="n">
-        <v>203.3141054692455</v>
+        <v>203.3141021634172</v>
       </c>
       <c r="F85" t="n">
-        <v>228.1607373343069</v>
+        <v>228.1607329581214</v>
       </c>
       <c r="G85" t="n">
-        <v>253.0073692225584</v>
+        <v>253.0073637760158</v>
       </c>
       <c r="H85" t="n">
-        <v>277.8540011108099</v>
+        <v>277.8539945939102</v>
       </c>
       <c r="I85" t="n">
-        <v>302.7006329758712</v>
+        <v>302.7006253886143</v>
       </c>
       <c r="J85" t="n">
-        <v>319.2854487835168</v>
+        <v>319.2854401259028</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>24.3846794073955</v>
+        <v>24.38468109648332</v>
       </c>
       <c r="B86" t="n">
-        <v>75.72759394720899</v>
+        <v>75.72759935481594</v>
       </c>
       <c r="C86" t="n">
-        <v>140.1394595104143</v>
+        <v>140.1394697449102</v>
       </c>
       <c r="D86" t="n">
-        <v>174.1789649192271</v>
+        <v>174.1789283441402</v>
       </c>
       <c r="E86" t="n">
-        <v>195.9398145176656</v>
+        <v>195.9397735261501</v>
       </c>
       <c r="F86" t="n">
-        <v>217.7006641161041</v>
+        <v>217.7006187081601</v>
       </c>
       <c r="G86" t="n">
-        <v>239.4615137348528</v>
+        <v>239.4614639104801</v>
       </c>
       <c r="H86" t="n">
-        <v>261.2223633536014</v>
+        <v>261.2223091128003</v>
       </c>
       <c r="I86" t="n">
-        <v>282.9832129520399</v>
+        <v>282.9831542948101</v>
       </c>
       <c r="J86" t="n">
-        <v>297.979880129641</v>
+        <v>297.9798170559827</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>24.3846794073955</v>
+        <v>24.38468109648332</v>
       </c>
       <c r="B87" t="n">
-        <v>75.72759394720899</v>
+        <v>75.72759935481594</v>
       </c>
       <c r="C87" t="n">
-        <v>140.1394595104143</v>
+        <v>140.1394697449102</v>
       </c>
       <c r="D87" t="n">
-        <v>174.1789649192271</v>
+        <v>174.1789283441402</v>
       </c>
       <c r="E87" t="n">
-        <v>195.9398145176656</v>
+        <v>195.9397735261501</v>
       </c>
       <c r="F87" t="n">
-        <v>217.7006641161041</v>
+        <v>217.7006187081601</v>
       </c>
       <c r="G87" t="n">
-        <v>239.4615137348528</v>
+        <v>239.4614639104801</v>
       </c>
       <c r="H87" t="n">
-        <v>261.2223633536014</v>
+        <v>261.2223091128003</v>
       </c>
       <c r="I87" t="n">
-        <v>282.9832129520399</v>
+        <v>282.9831542948101</v>
       </c>
       <c r="J87" t="n">
-        <v>297.979880129641</v>
+        <v>297.9798170559827</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>31.99676671263659</v>
+        <v>31.99675576982753</v>
       </c>
       <c r="B88" t="n">
-        <v>100.0951040544019</v>
+        <v>100.0950689516264</v>
       </c>
       <c r="C88" t="n">
-        <v>186.2542022392471</v>
+        <v>186.2541357089003</v>
       </c>
       <c r="D88" t="n">
-        <v>183.0020964487651</v>
+        <v>183.0020594292625</v>
       </c>
       <c r="E88" t="n">
-        <v>214.1843617220064</v>
+        <v>214.1843061400039</v>
       </c>
       <c r="F88" t="n">
-        <v>245.3666269952478</v>
+        <v>245.3665528507453</v>
       </c>
       <c r="G88" t="n">
-        <v>276.5488922975926</v>
+        <v>276.54879959059</v>
       </c>
       <c r="H88" t="n">
-        <v>307.7311575999375</v>
+        <v>307.7310463304349</v>
       </c>
       <c r="I88" t="n">
-        <v>338.9134228731788</v>
+        <v>338.9132930411762</v>
       </c>
       <c r="J88" t="n">
-        <v>358.4762660535706</v>
+        <v>358.476125702818</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>31.99676671263659</v>
+        <v>31.99675576982753</v>
       </c>
       <c r="B89" t="n">
-        <v>100.0951040544019</v>
+        <v>100.0950689516264</v>
       </c>
       <c r="C89" t="n">
-        <v>186.2542022392471</v>
+        <v>186.2541357089003</v>
       </c>
       <c r="D89" t="n">
-        <v>183.0020964487651</v>
+        <v>183.0020594292625</v>
       </c>
       <c r="E89" t="n">
-        <v>214.1843617220064</v>
+        <v>214.1843061400039</v>
       </c>
       <c r="F89" t="n">
-        <v>245.3666269952478</v>
+        <v>245.3665528507453</v>
       </c>
       <c r="G89" t="n">
-        <v>276.5488922975926</v>
+        <v>276.54879959059</v>
       </c>
       <c r="H89" t="n">
-        <v>307.7311575999375</v>
+        <v>307.7310463304349</v>
       </c>
       <c r="I89" t="n">
-        <v>338.9134228731788</v>
+        <v>338.9132930411762</v>
       </c>
       <c r="J89" t="n">
-        <v>358.4762660535706</v>
+        <v>358.476125702818</v>
       </c>
     </row>
     <row r="90">
@@ -3336,2402 +3336,2402 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29.13344283818776</v>
+        <v>29.13344512439308</v>
       </c>
       <c r="B91" t="n">
-        <v>90.93701823433614</v>
+        <v>90.93702524093558</v>
       </c>
       <c r="C91" t="n">
-        <v>168.9335258307769</v>
+        <v>168.9335386661404</v>
       </c>
       <c r="D91" t="n">
-        <v>179.8480791998691</v>
+        <v>179.8480879491165</v>
       </c>
       <c r="E91" t="n">
-        <v>207.6117409209065</v>
+        <v>207.6117496701539</v>
       </c>
       <c r="F91" t="n">
-        <v>235.375402641944</v>
+        <v>235.3754113911914</v>
       </c>
       <c r="G91" t="n">
-        <v>263.139064388894</v>
+        <v>263.1390731381414</v>
       </c>
       <c r="H91" t="n">
-        <v>290.9027261358443</v>
+        <v>290.9027348850917</v>
       </c>
       <c r="I91" t="n">
-        <v>318.6663878568816</v>
+        <v>318.666396606129</v>
       </c>
       <c r="J91" t="n">
-        <v>336.5912080714736</v>
+        <v>336.591216820721</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>30.88870849979562</v>
+        <v>30.88871143787594</v>
       </c>
       <c r="B92" t="n">
-        <v>96.41328863438</v>
+        <v>96.41329738660446</v>
       </c>
       <c r="C92" t="n">
-        <v>179.1031419780287</v>
+        <v>179.1031576527672</v>
       </c>
       <c r="D92" t="n">
-        <v>201.513254624757</v>
+        <v>201.5133128547187</v>
       </c>
       <c r="E92" t="n">
-        <v>233.0027167371612</v>
+        <v>233.0027797885515</v>
       </c>
       <c r="F92" t="n">
-        <v>264.4921788495654</v>
+        <v>264.4922467223843</v>
       </c>
       <c r="G92" t="n">
-        <v>295.9816409913598</v>
+        <v>295.9817136856072</v>
       </c>
       <c r="H92" t="n">
-        <v>327.4711031331542</v>
+        <v>327.4711806488302</v>
       </c>
       <c r="I92" t="n">
-        <v>358.9605652455583</v>
+        <v>358.9606475826629</v>
       </c>
       <c r="J92" t="n">
-        <v>379.6861867770865</v>
+        <v>379.6862739356196</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>30.88870849979562</v>
+        <v>30.88871143787594</v>
       </c>
       <c r="B93" t="n">
-        <v>96.41328863438</v>
+        <v>96.41329738660446</v>
       </c>
       <c r="C93" t="n">
-        <v>179.1031419780287</v>
+        <v>179.1031576527672</v>
       </c>
       <c r="D93" t="n">
-        <v>201.513254624757</v>
+        <v>201.5133128547187</v>
       </c>
       <c r="E93" t="n">
-        <v>233.0027167371612</v>
+        <v>233.0027797885515</v>
       </c>
       <c r="F93" t="n">
-        <v>264.4921788495654</v>
+        <v>264.4922467223843</v>
       </c>
       <c r="G93" t="n">
-        <v>295.9816409913598</v>
+        <v>295.9817136856072</v>
       </c>
       <c r="H93" t="n">
-        <v>327.4711031331542</v>
+        <v>327.4711806488302</v>
       </c>
       <c r="I93" t="n">
-        <v>358.9605652455583</v>
+        <v>358.9606475826629</v>
       </c>
       <c r="J93" t="n">
-        <v>379.6861867770865</v>
+        <v>379.6862739356196</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>30.88870849979562</v>
+        <v>30.88871143787594</v>
       </c>
       <c r="B94" t="n">
-        <v>96.41328863438</v>
+        <v>96.41329738660446</v>
       </c>
       <c r="C94" t="n">
-        <v>179.1031419780287</v>
+        <v>179.1031576527672</v>
       </c>
       <c r="D94" t="n">
-        <v>201.513254624757</v>
+        <v>201.5133128547187</v>
       </c>
       <c r="E94" t="n">
-        <v>233.0027167371612</v>
+        <v>233.0027797885515</v>
       </c>
       <c r="F94" t="n">
-        <v>264.4921788495654</v>
+        <v>264.4922467223843</v>
       </c>
       <c r="G94" t="n">
-        <v>295.9816409913598</v>
+        <v>295.9817136856072</v>
       </c>
       <c r="H94" t="n">
-        <v>327.4711031331542</v>
+        <v>327.4711806488302</v>
       </c>
       <c r="I94" t="n">
-        <v>358.9605652455583</v>
+        <v>358.9606475826629</v>
       </c>
       <c r="J94" t="n">
-        <v>379.6861867770865</v>
+        <v>379.6862739356196</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>30.88870849979562</v>
+        <v>30.88871143787594</v>
       </c>
       <c r="B95" t="n">
-        <v>96.41328863438</v>
+        <v>96.41329738660446</v>
       </c>
       <c r="C95" t="n">
-        <v>179.1031419780287</v>
+        <v>179.1031576527672</v>
       </c>
       <c r="D95" t="n">
-        <v>201.513254624757</v>
+        <v>201.5133128547187</v>
       </c>
       <c r="E95" t="n">
-        <v>233.0027167371612</v>
+        <v>233.0027797885515</v>
       </c>
       <c r="F95" t="n">
-        <v>264.4921788495654</v>
+        <v>264.4922467223843</v>
       </c>
       <c r="G95" t="n">
-        <v>295.9816409913598</v>
+        <v>295.9817136856072</v>
       </c>
       <c r="H95" t="n">
-        <v>327.4711031331542</v>
+        <v>327.4711806488302</v>
       </c>
       <c r="I95" t="n">
-        <v>358.9605652455583</v>
+        <v>358.9606475826629</v>
       </c>
       <c r="J95" t="n">
-        <v>379.6861867770865</v>
+        <v>379.6862739356196</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>30.88870849979562</v>
+        <v>30.88871143787594</v>
       </c>
       <c r="B96" t="n">
-        <v>96.41328863438</v>
+        <v>96.41329738660446</v>
       </c>
       <c r="C96" t="n">
-        <v>179.1031419780287</v>
+        <v>179.1031576527672</v>
       </c>
       <c r="D96" t="n">
-        <v>201.513254624757</v>
+        <v>201.5133128547187</v>
       </c>
       <c r="E96" t="n">
-        <v>233.0027167371612</v>
+        <v>233.0027797885515</v>
       </c>
       <c r="F96" t="n">
-        <v>264.4921788495654</v>
+        <v>264.4922467223843</v>
       </c>
       <c r="G96" t="n">
-        <v>295.9816409913598</v>
+        <v>295.9817136856072</v>
       </c>
       <c r="H96" t="n">
-        <v>327.4711031331542</v>
+        <v>327.4711806488302</v>
       </c>
       <c r="I96" t="n">
-        <v>358.9605652455583</v>
+        <v>358.9606475826629</v>
       </c>
       <c r="J96" t="n">
-        <v>379.6861867770865</v>
+        <v>379.6862739356196</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32.71050484432723</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B97" t="n">
-        <v>102.2743314008047</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C97" t="n">
-        <v>190.2346857350599</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D97" t="n">
-        <v>194.0848420985458</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E97" t="n">
-        <v>226.5775677998344</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F97" t="n">
-        <v>259.0702935011231</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G97" t="n">
-        <v>291.5630192327382</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H97" t="n">
-        <v>324.0557449643534</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I97" t="n">
-        <v>356.548470665642</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J97" t="n">
-        <v>377.2303973741988</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>32.71050484432723</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B98" t="n">
-        <v>102.2743314008047</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C98" t="n">
-        <v>190.2346857350599</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D98" t="n">
-        <v>194.0848420985458</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E98" t="n">
-        <v>226.5775677998344</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F98" t="n">
-        <v>259.0702935011231</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G98" t="n">
-        <v>291.5630192327382</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H98" t="n">
-        <v>324.0557449643534</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I98" t="n">
-        <v>356.548470665642</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J98" t="n">
-        <v>377.2303973741988</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32.71050484432723</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B99" t="n">
-        <v>102.2743314008047</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C99" t="n">
-        <v>190.2346857350599</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D99" t="n">
-        <v>194.0848420985458</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E99" t="n">
-        <v>226.5775677998344</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F99" t="n">
-        <v>259.0702935011231</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G99" t="n">
-        <v>291.5630192327382</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H99" t="n">
-        <v>324.0557449643534</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I99" t="n">
-        <v>356.548470665642</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J99" t="n">
-        <v>377.2303973741988</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>32.71050484432723</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B100" t="n">
-        <v>102.2743314008047</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C100" t="n">
-        <v>190.2346857350599</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D100" t="n">
-        <v>194.0848420985458</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E100" t="n">
-        <v>226.5775677998344</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F100" t="n">
-        <v>259.0702935011231</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G100" t="n">
-        <v>291.5630192327382</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H100" t="n">
-        <v>324.0557449643534</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I100" t="n">
-        <v>356.548470665642</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J100" t="n">
-        <v>377.2303973741988</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>32.71050484432723</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B101" t="n">
-        <v>102.2743314008047</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C101" t="n">
-        <v>190.2346857350599</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D101" t="n">
-        <v>194.0848420985458</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E101" t="n">
-        <v>226.5775677998344</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F101" t="n">
-        <v>259.0702935011231</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G101" t="n">
-        <v>291.5630192327382</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H101" t="n">
-        <v>324.0557449643534</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I101" t="n">
-        <v>356.548470665642</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J101" t="n">
-        <v>377.2303973741988</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>32.71050484432723</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B102" t="n">
-        <v>102.2743314008047</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C102" t="n">
-        <v>190.2346857350599</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D102" t="n">
-        <v>194.0848420985458</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E102" t="n">
-        <v>226.5775677998344</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F102" t="n">
-        <v>259.0702935011231</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G102" t="n">
-        <v>291.5630192327382</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H102" t="n">
-        <v>324.0557449643534</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I102" t="n">
-        <v>356.548470665642</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J102" t="n">
-        <v>377.2303973741988</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>32.71050484432723</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B103" t="n">
-        <v>102.2743314008047</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C103" t="n">
-        <v>190.2346857350599</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D103" t="n">
-        <v>194.0848420985458</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E103" t="n">
-        <v>226.5775677998344</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F103" t="n">
-        <v>259.0702935011231</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G103" t="n">
-        <v>291.5630192327382</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H103" t="n">
-        <v>324.0557449643534</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I103" t="n">
-        <v>356.548470665642</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J103" t="n">
-        <v>377.2303973741988</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>32.71050484432723</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B104" t="n">
-        <v>102.2743314008047</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C104" t="n">
-        <v>190.2346857350599</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D104" t="n">
-        <v>194.0848420985458</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E104" t="n">
-        <v>226.5775677998344</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F104" t="n">
-        <v>259.0702935011231</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G104" t="n">
-        <v>291.5630192327382</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H104" t="n">
-        <v>324.0557449643534</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I104" t="n">
-        <v>356.548470665642</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J104" t="n">
-        <v>377.2303973741988</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B105" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C105" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D105" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E105" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F105" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G105" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H105" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I105" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J105" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B106" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C106" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D106" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E106" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F106" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G106" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H106" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I106" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J106" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B107" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C107" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D107" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E107" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F107" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G107" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H107" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I107" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J107" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B108" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C108" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D108" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E108" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F108" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G108" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H108" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I108" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J108" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B109" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C109" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D109" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E109" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F109" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G109" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H109" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I109" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J109" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B110" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C110" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D110" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E110" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F110" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G110" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H110" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I110" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J110" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B111" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C111" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D111" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E111" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F111" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G111" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H111" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I111" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J111" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B112" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C112" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D112" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E112" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F112" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G112" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H112" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I112" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J112" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B113" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C113" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D113" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E113" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F113" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G113" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H113" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I113" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J113" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B114" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C114" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D114" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E114" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F114" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G114" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H114" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I114" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J114" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B115" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C115" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D115" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E115" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F115" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G115" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H115" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I115" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J115" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B116" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C116" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D116" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E116" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F116" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G116" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H116" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I116" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J116" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B117" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C117" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D117" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E117" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F117" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G117" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H117" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I117" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J117" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B118" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C118" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D118" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E118" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F118" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G118" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H118" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I118" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J118" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B119" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C119" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D119" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E119" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F119" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G119" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H119" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I119" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J119" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B120" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C120" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D120" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E120" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F120" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G120" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H120" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I120" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J120" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B121" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C121" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D121" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E121" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F121" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G121" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H121" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I121" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J121" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B122" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C122" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D122" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E122" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F122" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G122" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H122" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I122" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J122" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B123" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C123" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D123" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E123" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F123" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G123" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H123" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I123" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J123" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B124" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C124" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D124" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E124" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F124" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G124" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H124" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I124" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J124" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B125" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C125" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D125" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E125" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F125" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G125" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H125" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I125" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J125" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B126" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C126" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D126" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E126" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F126" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G126" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H126" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I126" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J126" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B127" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C127" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D127" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E127" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F127" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G127" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H127" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I127" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J127" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B128" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C128" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D128" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E128" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F128" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G128" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H128" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I128" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J128" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B129" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C129" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D129" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E129" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F129" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G129" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H129" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I129" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J129" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B130" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C130" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D130" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E130" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F130" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G130" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H130" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I130" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J130" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B131" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C131" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D131" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E131" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F131" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G131" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H131" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I131" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J131" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B132" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C132" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D132" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E132" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F132" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G132" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H132" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I132" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J132" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B133" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C133" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D133" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E133" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F133" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G133" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H133" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I133" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J133" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B134" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C134" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D134" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E134" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F134" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G134" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H134" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I134" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J134" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B135" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C135" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D135" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E135" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F135" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G135" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H135" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I135" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J135" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B136" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C136" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D136" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E136" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F136" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G136" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H136" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I136" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J136" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B137" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C137" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D137" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E137" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F137" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G137" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H137" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I137" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J137" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B138" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C138" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D138" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E138" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F138" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G138" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H138" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I138" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J138" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B139" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C139" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D139" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E139" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F139" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G139" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H139" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I139" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J139" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B140" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C140" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D140" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E140" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F140" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G140" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H140" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I140" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J140" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B141" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C141" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D141" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E141" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F141" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G141" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H141" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I141" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J141" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B142" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C142" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D142" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E142" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F142" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G142" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H142" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I142" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J142" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>16.3021472228724</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B143" t="n">
-        <v>50.09795341786098</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C143" t="n">
-        <v>91.96795783773388</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D143" t="n">
-        <v>133.1132357349561</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E143" t="n">
-        <v>142.5301089763919</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F143" t="n">
-        <v>151.9469822178277</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G143" t="n">
-        <v>161.3638554680526</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H143" t="n">
-        <v>170.7807287182775</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I143" t="n">
-        <v>180.1976019597133</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J143" t="n">
-        <v>187.6206087008836</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>30.12520086048514</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B144" t="n">
-        <v>94.00459179786699</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C144" t="n">
-        <v>174.5929450281338</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D144" t="n">
-        <v>188.7280783884929</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E144" t="n">
-        <v>217.6991521447616</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F144" t="n">
-        <v>246.6702259010303</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G144" t="n">
-        <v>275.6412996843387</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H144" t="n">
-        <v>304.6123734676471</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I144" t="n">
-        <v>333.5834472239157</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J144" t="n">
-        <v>352.4263296989172</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>30.12520086048514</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B145" t="n">
-        <v>94.00459179786699</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C145" t="n">
-        <v>174.5929450281338</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D145" t="n">
-        <v>188.7280783884929</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E145" t="n">
-        <v>217.6991521447616</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F145" t="n">
-        <v>246.6702259010303</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G145" t="n">
-        <v>275.6412996843387</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H145" t="n">
-        <v>304.6123734676471</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I145" t="n">
-        <v>333.5834472239157</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J145" t="n">
-        <v>352.4263296989172</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>30.12520086048514</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B146" t="n">
-        <v>94.00459179786699</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C146" t="n">
-        <v>174.5929450281338</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D146" t="n">
-        <v>188.7280783884929</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E146" t="n">
-        <v>217.6991521447616</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F146" t="n">
-        <v>246.6702259010303</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G146" t="n">
-        <v>275.6412996843387</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H146" t="n">
-        <v>304.6123734676471</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I146" t="n">
-        <v>333.5834472239157</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J146" t="n">
-        <v>352.4263296989172</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>30.12520086048514</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B147" t="n">
-        <v>94.00459179786699</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C147" t="n">
-        <v>174.5929450281338</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D147" t="n">
-        <v>188.7280783884929</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E147" t="n">
-        <v>217.6991521447616</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F147" t="n">
-        <v>246.6702259010303</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G147" t="n">
-        <v>275.6412996843387</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H147" t="n">
-        <v>304.6123734676471</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I147" t="n">
-        <v>333.5834472239157</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J147" t="n">
-        <v>352.4263296989172</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>30.12520086048514</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B148" t="n">
-        <v>94.00459179786699</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C148" t="n">
-        <v>174.5929450281338</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D148" t="n">
-        <v>188.7280783884929</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E148" t="n">
-        <v>217.6991521447616</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F148" t="n">
-        <v>246.6702259010303</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G148" t="n">
-        <v>275.6412996843387</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H148" t="n">
-        <v>304.6123734676471</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I148" t="n">
-        <v>333.5834472239157</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J148" t="n">
-        <v>352.4263296989172</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>36.22433311330572</v>
+        <v>36.22432217049666</v>
       </c>
       <c r="B149" t="n">
-        <v>113.6379615251255</v>
+        <v>113.63792642235</v>
       </c>
       <c r="C149" t="n">
-        <v>211.896885684996</v>
+        <v>211.8968191546492</v>
       </c>
       <c r="D149" t="n">
-        <v>189.0446791717268</v>
+        <v>189.0446421522241</v>
       </c>
       <c r="E149" t="n">
-        <v>225.7730621748925</v>
+        <v>225.7730065928899</v>
       </c>
       <c r="F149" t="n">
-        <v>262.5014451780584</v>
+        <v>262.5013710335558</v>
       </c>
       <c r="G149" t="n">
-        <v>299.2298282155039</v>
+        <v>299.2297355085013</v>
       </c>
       <c r="H149" t="n">
-        <v>335.9582112529496</v>
+        <v>335.9580999834469</v>
       </c>
       <c r="I149" t="n">
-        <v>372.6865942561153</v>
+        <v>372.6864644241126</v>
       </c>
       <c r="J149" t="n">
-        <v>395.016166055642</v>
+        <v>395.0160257048893</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B150" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C150" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D150" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E150" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F150" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G150" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H150" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I150" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J150" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B151" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C151" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D151" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E151" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F151" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G151" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H151" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I151" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J151" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B152" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C152" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D152" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E152" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F152" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G152" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H152" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I152" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J152" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B153" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C153" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D153" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E153" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F153" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G153" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H153" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I153" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J153" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B154" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C154" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D154" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E154" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F154" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G154" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H154" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I154" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J154" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B155" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C155" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D155" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E155" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F155" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G155" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H155" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I155" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J155" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B156" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C156" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D156" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E156" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F156" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G156" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H156" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I156" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J156" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B157" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C157" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D157" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E157" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F157" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G157" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H157" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I157" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J157" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B158" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C158" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D158" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E158" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F158" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G158" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H158" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I158" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J158" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B159" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C159" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D159" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E159" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F159" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G159" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H159" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I159" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J159" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B160" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C160" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D160" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E160" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F160" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G160" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H160" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I160" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J160" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B161" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C161" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D161" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E161" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F161" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G161" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H161" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I161" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J161" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B162" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C162" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D162" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E162" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F162" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G162" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H162" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I162" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J162" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B163" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C163" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D163" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E163" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F163" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G163" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H163" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I163" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J163" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B164" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C164" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D164" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E164" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F164" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G164" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H164" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I164" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J164" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>25.00550735707774</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B165" t="n">
-        <v>77.7863925514196</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C165" t="n">
-        <v>144.1328616273404</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D165" t="n">
-        <v>161.1917283563686</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E165" t="n">
-        <v>182.2879454729301</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F165" t="n">
-        <v>203.3841625894916</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G165" t="n">
-        <v>224.4803797257429</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H165" t="n">
-        <v>245.5765968619942</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I165" t="n">
-        <v>266.6728139785557</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J165" t="n">
-        <v>280.6200517620166</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
   </sheetData>

--- a/models/calculation engines/economic_overlay/outputs/mining_costs/costs_RMB-t_ROM_ore_before_per-t-ore_charges-sedimentary_bauxite.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/mining_costs/costs_RMB-t_ROM_ore_before_per-t-ore_charges-sedimentary_bauxite.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,323 +584,263 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.58505992400762</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B5" t="n">
-        <v>85.96073140351331</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C5" t="n">
-        <v>159.4893024931554</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D5" t="n">
-        <v>181.6063305025681</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E5" t="n">
-        <v>207.8107947778005</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F5" t="n">
-        <v>234.0152590530331</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G5" t="n">
-        <v>260.219723352723</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H5" t="n">
-        <v>286.4241876524131</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I5" t="n">
-        <v>312.6286519276455</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J5" t="n">
-        <v>329.984991208323</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35.24429207504045</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B6" t="n">
-        <v>106.0761369874818</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C6" t="n">
-        <v>191.5660353657491</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D6" t="n">
-        <v>812.7420832892059</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E6" t="n">
-        <v>899.1203128171546</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F6" t="n">
-        <v>985.4985423451035</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G6" t="n">
-        <v>1071.876771953672</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H6" t="n">
-        <v>1158.25500156224</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I6" t="n">
-        <v>1244.633231090189</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J6" t="n">
-        <v>1322.830894479422</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35.24429207504045</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B7" t="n">
-        <v>106.0761369874818</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C7" t="n">
-        <v>191.5660353657491</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D7" t="n">
-        <v>812.7420832892059</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E7" t="n">
-        <v>899.1203128171546</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F7" t="n">
-        <v>985.4985423451035</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G7" t="n">
-        <v>1071.876771953672</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H7" t="n">
-        <v>1158.25500156224</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I7" t="n">
-        <v>1244.633231090189</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J7" t="n">
-        <v>1322.830894479422</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35.24429207504045</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B8" t="n">
-        <v>106.0761369874818</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C8" t="n">
-        <v>191.5660353657491</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D8" t="n">
-        <v>812.7420832892059</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E8" t="n">
-        <v>899.1203128171546</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F8" t="n">
-        <v>985.4985423451035</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G8" t="n">
-        <v>1071.876771953672</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H8" t="n">
-        <v>1158.25500156224</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I8" t="n">
-        <v>1244.633231090189</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J8" t="n">
-        <v>1322.830894479422</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>35.24429207504045</v>
-      </c>
-      <c r="B9" t="n">
-        <v>106.0761369874818</v>
-      </c>
-      <c r="C9" t="n">
-        <v>191.5660353657491</v>
-      </c>
-      <c r="D9" t="n">
-        <v>812.7420832892059</v>
-      </c>
-      <c r="E9" t="n">
-        <v>899.1203128171546</v>
-      </c>
-      <c r="F9" t="n">
-        <v>985.4985423451035</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1071.876771953672</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1158.25500156224</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1244.633231090189</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1322.830894479422</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35.24429207504045</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B10" t="n">
-        <v>106.0761369874818</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C10" t="n">
-        <v>191.5660353657491</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D10" t="n">
-        <v>812.7420832892059</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E10" t="n">
-        <v>899.1203128171546</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F10" t="n">
-        <v>985.4985423451035</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G10" t="n">
-        <v>1071.876771953672</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H10" t="n">
-        <v>1158.25500156224</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I10" t="n">
-        <v>1244.633231090189</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J10" t="n">
-        <v>1322.830894479422</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25.3213479751256</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B11" t="n">
-        <v>78.7474984455957</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C11" t="n">
-        <v>145.8837583029444</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D11" t="n">
-        <v>172.5413320982646</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E11" t="n">
-        <v>195.2669623302457</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F11" t="n">
-        <v>217.9925925622269</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G11" t="n">
-        <v>240.7182228154187</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H11" t="n">
-        <v>263.4438530686105</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I11" t="n">
-        <v>286.1694833005916</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J11" t="n">
-        <v>301.4976547183751</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35.21876342095865</v>
+        <v>24.38468109648332</v>
       </c>
       <c r="B12" t="n">
-        <v>110.1582427863905</v>
+        <v>75.72759935481594</v>
       </c>
       <c r="C12" t="n">
-        <v>204.9568630427215</v>
+        <v>140.1394697449102</v>
       </c>
       <c r="D12" t="n">
-        <v>219.2292738611472</v>
+        <v>174.1789283441402</v>
       </c>
       <c r="E12" t="n">
-        <v>256.785617726839</v>
+        <v>195.9397735261501</v>
       </c>
       <c r="F12" t="n">
-        <v>294.3419615925308</v>
+        <v>217.7006187081601</v>
       </c>
       <c r="G12" t="n">
-        <v>331.8983054932751</v>
+        <v>239.4614639104801</v>
       </c>
       <c r="H12" t="n">
-        <v>369.4546493940194</v>
+        <v>261.2223091128003</v>
       </c>
       <c r="I12" t="n">
-        <v>407.0109932597111</v>
+        <v>282.9831542948101</v>
       </c>
       <c r="J12" t="n">
-        <v>431.2928571648218</v>
+        <v>297.9798170559827</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>25.70254500558018</v>
-      </c>
-      <c r="B13" t="n">
-        <v>79.93400734027776</v>
-      </c>
-      <c r="C13" t="n">
-        <v>148.0832476473803</v>
-      </c>
-      <c r="D13" t="n">
-        <v>175.523729952975</v>
-      </c>
-      <c r="E13" t="n">
-        <v>198.7327298544057</v>
-      </c>
-      <c r="F13" t="n">
-        <v>221.9417297558364</v>
-      </c>
-      <c r="G13" t="n">
-        <v>245.1507296789288</v>
-      </c>
-      <c r="H13" t="n">
-        <v>268.3597296020213</v>
-      </c>
-      <c r="I13" t="n">
-        <v>291.5687295034519</v>
-      </c>
-      <c r="J13" t="n">
-        <v>307.2422639720198</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>25.70254500558018</v>
-      </c>
-      <c r="B14" t="n">
-        <v>79.93400734027776</v>
-      </c>
-      <c r="C14" t="n">
-        <v>148.0832476473803</v>
-      </c>
-      <c r="D14" t="n">
-        <v>175.523729952975</v>
-      </c>
-      <c r="E14" t="n">
-        <v>198.7327298544057</v>
-      </c>
-      <c r="F14" t="n">
-        <v>221.9417297558364</v>
-      </c>
-      <c r="G14" t="n">
-        <v>245.1507296789288</v>
-      </c>
-      <c r="H14" t="n">
-        <v>268.3597296020213</v>
-      </c>
-      <c r="I14" t="n">
-        <v>291.5687295034519</v>
-      </c>
-      <c r="J14" t="n">
-        <v>307.2422639720198</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -936,34 +876,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25.70254500558018</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B16" t="n">
-        <v>79.93400734027776</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C16" t="n">
-        <v>148.0832476473803</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D16" t="n">
-        <v>175.523729952975</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E16" t="n">
-        <v>198.7327298544057</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F16" t="n">
-        <v>221.9417297558364</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G16" t="n">
-        <v>245.1507296789288</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H16" t="n">
-        <v>268.3597296020213</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I16" t="n">
-        <v>291.5687295034519</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J16" t="n">
-        <v>307.2422639720198</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="17">
@@ -1000,34 +940,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25.70254500558018</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B18" t="n">
-        <v>79.93400734027776</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C18" t="n">
-        <v>148.0832476473803</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D18" t="n">
-        <v>175.523729952975</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E18" t="n">
-        <v>198.7327298544057</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F18" t="n">
-        <v>221.9417297558364</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G18" t="n">
-        <v>245.1507296789288</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H18" t="n">
-        <v>268.3597296020213</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I18" t="n">
-        <v>291.5687295034519</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J18" t="n">
-        <v>307.2422639720198</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="19">
@@ -1064,514 +1004,454 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25.70254500558018</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B20" t="n">
-        <v>79.93400734027776</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C20" t="n">
-        <v>148.0832476473803</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D20" t="n">
-        <v>175.523729952975</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E20" t="n">
-        <v>198.7327298544057</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F20" t="n">
-        <v>221.9417297558364</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G20" t="n">
-        <v>245.1507296789288</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H20" t="n">
-        <v>268.3597296020213</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I20" t="n">
-        <v>291.5687295034519</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J20" t="n">
-        <v>307.2422639720198</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25.70254500558018</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B21" t="n">
-        <v>79.93400734027776</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C21" t="n">
-        <v>148.0832476473803</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D21" t="n">
-        <v>175.523729952975</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E21" t="n">
-        <v>198.7327298544057</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F21" t="n">
-        <v>221.9417297558364</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G21" t="n">
-        <v>245.1507296789288</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H21" t="n">
-        <v>268.3597296020213</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I21" t="n">
-        <v>291.5687295034519</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J21" t="n">
-        <v>307.2422639720198</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>25.70254500558018</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B22" t="n">
-        <v>79.93400734027776</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C22" t="n">
-        <v>148.0832476473803</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D22" t="n">
-        <v>175.523729952975</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E22" t="n">
-        <v>198.7327298544057</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F22" t="n">
-        <v>221.9417297558364</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G22" t="n">
-        <v>245.1507296789288</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H22" t="n">
-        <v>268.3597296020213</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I22" t="n">
-        <v>291.5687295034519</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J22" t="n">
-        <v>307.2422639720198</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>25.70254500558018</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B23" t="n">
-        <v>79.93400734027776</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C23" t="n">
-        <v>148.0832476473803</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D23" t="n">
-        <v>175.523729952975</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E23" t="n">
-        <v>198.7327298544057</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F23" t="n">
-        <v>221.9417297558364</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G23" t="n">
-        <v>245.1507296789288</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H23" t="n">
-        <v>268.3597296020213</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I23" t="n">
-        <v>291.5687295034519</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J23" t="n">
-        <v>307.2422639720198</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.70254500558018</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B24" t="n">
-        <v>79.93400734027776</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C24" t="n">
-        <v>148.0832476473803</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D24" t="n">
-        <v>175.523729952975</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E24" t="n">
-        <v>198.7327298544057</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F24" t="n">
-        <v>221.9417297558364</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G24" t="n">
-        <v>245.1507296789288</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H24" t="n">
-        <v>268.3597296020213</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I24" t="n">
-        <v>291.5687295034519</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J24" t="n">
-        <v>307.2422639720198</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>25.70254500558018</v>
-      </c>
-      <c r="B25" t="n">
-        <v>79.93400734027776</v>
-      </c>
-      <c r="C25" t="n">
-        <v>148.0832476473803</v>
-      </c>
-      <c r="D25" t="n">
-        <v>175.523729952975</v>
-      </c>
-      <c r="E25" t="n">
-        <v>198.7327298544057</v>
-      </c>
-      <c r="F25" t="n">
-        <v>221.9417297558364</v>
-      </c>
-      <c r="G25" t="n">
-        <v>245.1507296789288</v>
-      </c>
-      <c r="H25" t="n">
-        <v>268.3597296020213</v>
-      </c>
-      <c r="I25" t="n">
-        <v>291.5687295034519</v>
-      </c>
-      <c r="J25" t="n">
-        <v>307.2422639720198</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25.70254500558018</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B26" t="n">
-        <v>79.93400734027776</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C26" t="n">
-        <v>148.0832476473803</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D26" t="n">
-        <v>175.523729952975</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E26" t="n">
-        <v>198.7327298544057</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F26" t="n">
-        <v>221.9417297558364</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G26" t="n">
-        <v>245.1507296789288</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H26" t="n">
-        <v>268.3597296020213</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I26" t="n">
-        <v>291.5687295034519</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J26" t="n">
-        <v>307.2422639720198</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25.70254500558018</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B27" t="n">
-        <v>79.93400734027776</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C27" t="n">
-        <v>148.0832476473803</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D27" t="n">
-        <v>175.523729952975</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E27" t="n">
-        <v>198.7327298544057</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F27" t="n">
-        <v>221.9417297558364</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G27" t="n">
-        <v>245.1507296789288</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H27" t="n">
-        <v>268.3597296020213</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I27" t="n">
-        <v>291.5687295034519</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J27" t="n">
-        <v>307.2422639720198</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25.70254500558018</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B28" t="n">
-        <v>79.93400734027776</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C28" t="n">
-        <v>148.0832476473803</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D28" t="n">
-        <v>175.523729952975</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E28" t="n">
-        <v>198.7327298544057</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F28" t="n">
-        <v>221.9417297558364</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G28" t="n">
-        <v>245.1507296789288</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H28" t="n">
-        <v>268.3597296020213</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I28" t="n">
-        <v>291.5687295034519</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J28" t="n">
-        <v>307.2422639720198</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>25.70254500558018</v>
-      </c>
-      <c r="B29" t="n">
-        <v>79.93400734027776</v>
-      </c>
-      <c r="C29" t="n">
-        <v>148.0832476473803</v>
-      </c>
-      <c r="D29" t="n">
-        <v>175.523729952975</v>
-      </c>
-      <c r="E29" t="n">
-        <v>198.7327298544057</v>
-      </c>
-      <c r="F29" t="n">
-        <v>221.9417297558364</v>
-      </c>
-      <c r="G29" t="n">
-        <v>245.1507296789288</v>
-      </c>
-      <c r="H29" t="n">
-        <v>268.3597296020213</v>
-      </c>
-      <c r="I29" t="n">
-        <v>291.5687295034519</v>
-      </c>
-      <c r="J29" t="n">
-        <v>307.2422639720198</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.70254500558018</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B30" t="n">
-        <v>79.93400734027776</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C30" t="n">
-        <v>148.0832476473803</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D30" t="n">
-        <v>175.523729952975</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E30" t="n">
-        <v>198.7327298544057</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F30" t="n">
-        <v>221.9417297558364</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G30" t="n">
-        <v>245.1507296789288</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H30" t="n">
-        <v>268.3597296020213</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I30" t="n">
-        <v>291.5687295034519</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J30" t="n">
-        <v>307.2422639720198</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>25.70254500558018</v>
-      </c>
-      <c r="B31" t="n">
-        <v>79.93400734027776</v>
-      </c>
-      <c r="C31" t="n">
-        <v>148.0832476473803</v>
-      </c>
-      <c r="D31" t="n">
-        <v>175.523729952975</v>
-      </c>
-      <c r="E31" t="n">
-        <v>198.7327298544057</v>
-      </c>
-      <c r="F31" t="n">
-        <v>221.9417297558364</v>
-      </c>
-      <c r="G31" t="n">
-        <v>245.1507296789288</v>
-      </c>
-      <c r="H31" t="n">
-        <v>268.3597296020213</v>
-      </c>
-      <c r="I31" t="n">
-        <v>291.5687295034519</v>
-      </c>
-      <c r="J31" t="n">
-        <v>307.2422639720198</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>25.70254500558018</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B32" t="n">
-        <v>79.93400734027776</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C32" t="n">
-        <v>148.0832476473803</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D32" t="n">
-        <v>175.523729952975</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E32" t="n">
-        <v>198.7327298544057</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F32" t="n">
-        <v>221.9417297558364</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G32" t="n">
-        <v>245.1507296789288</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H32" t="n">
-        <v>268.3597296020213</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I32" t="n">
-        <v>291.5687295034519</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J32" t="n">
-        <v>307.2422639720198</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25.70254500558018</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B33" t="n">
-        <v>79.93400734027776</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C33" t="n">
-        <v>148.0832476473803</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D33" t="n">
-        <v>175.523729952975</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E33" t="n">
-        <v>198.7327298544057</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F33" t="n">
-        <v>221.9417297558364</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G33" t="n">
-        <v>245.1507296789288</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H33" t="n">
-        <v>268.3597296020213</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I33" t="n">
-        <v>291.5687295034519</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J33" t="n">
-        <v>307.2422639720198</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>25.70254500558018</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B34" t="n">
-        <v>79.93400734027776</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C34" t="n">
-        <v>148.0832476473803</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D34" t="n">
-        <v>175.523729952975</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E34" t="n">
-        <v>198.7327298544057</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F34" t="n">
-        <v>221.9417297558364</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G34" t="n">
-        <v>245.1507296789288</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H34" t="n">
-        <v>268.3597296020213</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I34" t="n">
-        <v>291.5687295034519</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J34" t="n">
-        <v>307.2422639720198</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25.70254500558018</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B35" t="n">
-        <v>79.93400734027776</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C35" t="n">
-        <v>148.0832476473803</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D35" t="n">
-        <v>175.523729952975</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E35" t="n">
-        <v>198.7327298544057</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F35" t="n">
-        <v>221.9417297558364</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G35" t="n">
-        <v>245.1507296789288</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H35" t="n">
-        <v>268.3597296020213</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I35" t="n">
-        <v>291.5687295034519</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J35" t="n">
-        <v>307.2422639720198</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="36">
@@ -1639,323 +1519,283 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>27.21706900154975</v>
-      </c>
-      <c r="B38" t="n">
-        <v>84.80784590757493</v>
-      </c>
-      <c r="C38" t="n">
-        <v>157.3416726244554</v>
-      </c>
-      <c r="D38" t="n">
-        <v>172.3895062586104</v>
-      </c>
-      <c r="E38" t="n">
-        <v>196.9633400077095</v>
-      </c>
-      <c r="F38" t="n">
-        <v>221.5371737568085</v>
-      </c>
-      <c r="G38" t="n">
-        <v>246.1110075288431</v>
-      </c>
-      <c r="H38" t="n">
-        <v>270.6848413008777</v>
-      </c>
-      <c r="I38" t="n">
-        <v>295.2586750499767</v>
-      </c>
-      <c r="J38" t="n">
-        <v>311.3343754105554</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.21706900154975</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B39" t="n">
-        <v>84.80784590757493</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C39" t="n">
-        <v>157.3416726244554</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D39" t="n">
-        <v>172.3895062586104</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E39" t="n">
-        <v>196.9633400077095</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F39" t="n">
-        <v>221.5371737568085</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G39" t="n">
-        <v>246.1110075288431</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H39" t="n">
-        <v>270.6848413008777</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I39" t="n">
-        <v>295.2586750499767</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J39" t="n">
-        <v>311.3343754105554</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>27.21706900154975</v>
-      </c>
-      <c r="B40" t="n">
-        <v>84.80784590757493</v>
-      </c>
-      <c r="C40" t="n">
-        <v>157.3416726244554</v>
-      </c>
-      <c r="D40" t="n">
-        <v>172.3895062586104</v>
-      </c>
-      <c r="E40" t="n">
-        <v>196.9633400077095</v>
-      </c>
-      <c r="F40" t="n">
-        <v>221.5371737568085</v>
-      </c>
-      <c r="G40" t="n">
-        <v>246.1110075288431</v>
-      </c>
-      <c r="H40" t="n">
-        <v>270.6848413008777</v>
-      </c>
-      <c r="I40" t="n">
-        <v>295.2586750499767</v>
-      </c>
-      <c r="J40" t="n">
-        <v>311.3343754105554</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>27.21706900154975</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B41" t="n">
-        <v>84.80784590757493</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C41" t="n">
-        <v>157.3416726244554</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D41" t="n">
-        <v>172.3895062586104</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E41" t="n">
-        <v>196.9633400077095</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F41" t="n">
-        <v>221.5371737568085</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G41" t="n">
-        <v>246.1110075288431</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H41" t="n">
-        <v>270.6848413008777</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I41" t="n">
-        <v>295.2586750499767</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J41" t="n">
-        <v>311.3343754105554</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>27.21706900154975</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B42" t="n">
-        <v>84.80784590757493</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C42" t="n">
-        <v>157.3416726244554</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D42" t="n">
-        <v>172.3895062586104</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E42" t="n">
-        <v>196.9633400077095</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F42" t="n">
-        <v>221.5371737568085</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G42" t="n">
-        <v>246.1110075288431</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H42" t="n">
-        <v>270.6848413008777</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I42" t="n">
-        <v>295.2586750499767</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J42" t="n">
-        <v>311.3343754105554</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>27.21706900154975</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B43" t="n">
-        <v>84.80784590757493</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C43" t="n">
-        <v>157.3416726244554</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D43" t="n">
-        <v>172.3895062586104</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E43" t="n">
-        <v>196.9633400077095</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F43" t="n">
-        <v>221.5371737568085</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G43" t="n">
-        <v>246.1110075288431</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H43" t="n">
-        <v>270.6848413008777</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I43" t="n">
-        <v>295.2586750499767</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J43" t="n">
-        <v>311.3343754105554</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>27.21706900154975</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B44" t="n">
-        <v>84.80784590757493</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C44" t="n">
-        <v>157.3416726244554</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D44" t="n">
-        <v>172.3895062586104</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E44" t="n">
-        <v>196.9633400077095</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F44" t="n">
-        <v>221.5371737568085</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G44" t="n">
-        <v>246.1110075288431</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H44" t="n">
-        <v>270.6848413008777</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I44" t="n">
-        <v>295.2586750499767</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J44" t="n">
-        <v>311.3343754105554</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>27.21706900154975</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B45" t="n">
-        <v>84.80784590757493</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C45" t="n">
-        <v>157.3416726244554</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D45" t="n">
-        <v>172.3895062586104</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E45" t="n">
-        <v>196.9633400077095</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F45" t="n">
-        <v>221.5371737568085</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G45" t="n">
-        <v>246.1110075288431</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H45" t="n">
-        <v>270.6848413008777</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I45" t="n">
-        <v>295.2586750499767</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J45" t="n">
-        <v>311.3343754105554</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>27.21706900154975</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B46" t="n">
-        <v>84.80784590757493</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C46" t="n">
-        <v>157.3416726244554</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D46" t="n">
-        <v>172.3895062586104</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E46" t="n">
-        <v>196.9633400077095</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F46" t="n">
-        <v>221.5371737568085</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G46" t="n">
-        <v>246.1110075288431</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H46" t="n">
-        <v>270.6848413008777</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I46" t="n">
-        <v>295.2586750499767</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J46" t="n">
-        <v>311.3343754105554</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27.21706900154975</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B47" t="n">
-        <v>84.80784590757493</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C47" t="n">
-        <v>157.3416726244554</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D47" t="n">
-        <v>172.3895062586104</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E47" t="n">
-        <v>196.9633400077095</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F47" t="n">
-        <v>221.5371737568085</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G47" t="n">
-        <v>246.1110075288431</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H47" t="n">
-        <v>270.6848413008777</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I47" t="n">
-        <v>295.2586750499767</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J47" t="n">
-        <v>311.3343754105554</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="48">
@@ -1992,258 +1832,258 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27.21706900154975</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B49" t="n">
-        <v>84.80784590757493</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C49" t="n">
-        <v>157.3416726244554</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D49" t="n">
-        <v>172.3895062586104</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E49" t="n">
-        <v>196.9633400077095</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F49" t="n">
-        <v>221.5371737568085</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G49" t="n">
-        <v>246.1110075288431</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H49" t="n">
-        <v>270.6848413008777</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I49" t="n">
-        <v>295.2586750499767</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J49" t="n">
-        <v>311.3343754105554</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27.21706900154975</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B50" t="n">
-        <v>84.80784590757493</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C50" t="n">
-        <v>157.3416726244554</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D50" t="n">
-        <v>172.3895062586104</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E50" t="n">
-        <v>196.9633400077095</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F50" t="n">
-        <v>221.5371737568085</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G50" t="n">
-        <v>246.1110075288431</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H50" t="n">
-        <v>270.6848413008777</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I50" t="n">
-        <v>295.2586750499767</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J50" t="n">
-        <v>311.3343754105554</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>27.21706900154975</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B51" t="n">
-        <v>84.80784590757493</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C51" t="n">
-        <v>157.3416726244554</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D51" t="n">
-        <v>172.3895062586104</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E51" t="n">
-        <v>196.9633400077095</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F51" t="n">
-        <v>221.5371737568085</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G51" t="n">
-        <v>246.1110075288431</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H51" t="n">
-        <v>270.6848413008777</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I51" t="n">
-        <v>295.2586750499767</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J51" t="n">
-        <v>311.3343754105554</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27.21706900154975</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B52" t="n">
-        <v>84.80784590757493</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C52" t="n">
-        <v>157.3416726244554</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D52" t="n">
-        <v>172.3895062586104</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E52" t="n">
-        <v>196.9633400077095</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F52" t="n">
-        <v>221.5371737568085</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G52" t="n">
-        <v>246.1110075288431</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H52" t="n">
-        <v>270.6848413008777</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I52" t="n">
-        <v>295.2586750499767</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J52" t="n">
-        <v>311.3343754105554</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.21706900154975</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B53" t="n">
-        <v>84.80784590757493</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C53" t="n">
-        <v>157.3416726244554</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D53" t="n">
-        <v>172.3895062586104</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E53" t="n">
-        <v>196.9633400077095</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F53" t="n">
-        <v>221.5371737568085</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G53" t="n">
-        <v>246.1110075288431</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H53" t="n">
-        <v>270.6848413008777</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I53" t="n">
-        <v>295.2586750499767</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J53" t="n">
-        <v>311.3343754105554</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27.21706900154975</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B54" t="n">
-        <v>84.80784590757493</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C54" t="n">
-        <v>157.3416726244554</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D54" t="n">
-        <v>172.3895062586104</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E54" t="n">
-        <v>196.9633400077095</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F54" t="n">
-        <v>221.5371737568085</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G54" t="n">
-        <v>246.1110075288431</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H54" t="n">
-        <v>270.6848413008777</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I54" t="n">
-        <v>295.2586750499767</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J54" t="n">
-        <v>311.3343754105554</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27.75382871269638</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B55" t="n">
-        <v>86.41038584799719</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C55" t="n">
-        <v>160.2169811238316</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D55" t="n">
-        <v>189.8236232303478</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E55" t="n">
-        <v>216.4716065443315</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F55" t="n">
-        <v>243.1195898583151</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G55" t="n">
-        <v>269.7675731971702</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H55" t="n">
-        <v>296.4155565360253</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I55" t="n">
-        <v>323.063539850009</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J55" t="n">
-        <v>341.0040994443511</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27.75382871269638</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B56" t="n">
-        <v>86.41038584799719</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C56" t="n">
-        <v>160.2169811238316</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D56" t="n">
-        <v>189.8236232303478</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E56" t="n">
-        <v>216.4716065443315</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F56" t="n">
-        <v>243.1195898583151</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G56" t="n">
-        <v>269.7675731971702</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H56" t="n">
-        <v>296.4155565360253</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I56" t="n">
-        <v>323.063539850009</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J56" t="n">
-        <v>341.0040994443511</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="57">
@@ -2280,482 +2120,482 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29.49544025871353</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B58" t="n">
-        <v>92.06318200128307</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C58" t="n">
-        <v>171.020332290088</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D58" t="n">
-        <v>184.8446299564532</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E58" t="n">
-        <v>213.4259661475206</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F58" t="n">
-        <v>242.0073023385881</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G58" t="n">
-        <v>270.5886385563314</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H58" t="n">
-        <v>299.1699747740748</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I58" t="n">
-        <v>327.7513109651422</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J58" t="n">
-        <v>346.3051234061305</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>29.49544025871353</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B59" t="n">
-        <v>92.06318200128307</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C59" t="n">
-        <v>171.020332290088</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D59" t="n">
-        <v>184.8446299564532</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E59" t="n">
-        <v>213.4259661475206</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F59" t="n">
-        <v>242.0073023385881</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G59" t="n">
-        <v>270.5886385563314</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H59" t="n">
-        <v>299.1699747740748</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I59" t="n">
-        <v>327.7513109651422</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J59" t="n">
-        <v>346.3051234061305</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29.49544025871353</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B60" t="n">
-        <v>92.06318200128307</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C60" t="n">
-        <v>171.020332290088</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D60" t="n">
-        <v>184.8446299564532</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E60" t="n">
-        <v>213.4259661475206</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F60" t="n">
-        <v>242.0073023385881</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G60" t="n">
-        <v>270.5886385563314</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H60" t="n">
-        <v>299.1699747740748</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I60" t="n">
-        <v>327.7513109651422</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J60" t="n">
-        <v>346.3051234061305</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29.49544025871353</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B61" t="n">
-        <v>92.06318200128307</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C61" t="n">
-        <v>171.020332290088</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D61" t="n">
-        <v>184.8446299564532</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E61" t="n">
-        <v>213.4259661475206</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F61" t="n">
-        <v>242.0073023385881</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G61" t="n">
-        <v>270.5886385563314</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H61" t="n">
-        <v>299.1699747740748</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I61" t="n">
-        <v>327.7513109651422</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J61" t="n">
-        <v>346.3051234061305</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27.35221967977619</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B62" t="n">
-        <v>85.19821519789829</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C62" t="n">
-        <v>158.0229193353552</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D62" t="n">
-        <v>182.9498940016072</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E62" t="n">
-        <v>208.9265609644308</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F62" t="n">
-        <v>234.9032279272544</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G62" t="n">
-        <v>260.8798949143229</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H62" t="n">
-        <v>286.8565619013914</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I62" t="n">
-        <v>312.833228864215</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J62" t="n">
-        <v>330.1546680011149</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>27.35221967977619</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B63" t="n">
-        <v>85.19821519789829</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C63" t="n">
-        <v>158.0229193353552</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D63" t="n">
-        <v>182.9498940016072</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E63" t="n">
-        <v>208.9265609644308</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F63" t="n">
-        <v>234.9032279272544</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G63" t="n">
-        <v>260.8798949143229</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H63" t="n">
-        <v>286.8565619013914</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I63" t="n">
-        <v>312.833228864215</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J63" t="n">
-        <v>330.1546680011149</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>27.35221967977619</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B64" t="n">
-        <v>85.19821519789829</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C64" t="n">
-        <v>158.0229193353552</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D64" t="n">
-        <v>182.9498940016072</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E64" t="n">
-        <v>208.9265609644308</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F64" t="n">
-        <v>234.9032279272544</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G64" t="n">
-        <v>260.8798949143229</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H64" t="n">
-        <v>286.8565619013914</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I64" t="n">
-        <v>312.833228864215</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J64" t="n">
-        <v>330.1546680011149</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>27.35221967977619</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B65" t="n">
-        <v>85.19821519789829</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C65" t="n">
-        <v>158.0229193353552</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D65" t="n">
-        <v>182.9498940016072</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E65" t="n">
-        <v>208.9265609644308</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F65" t="n">
-        <v>234.9032279272544</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G65" t="n">
-        <v>260.8798949143229</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H65" t="n">
-        <v>286.8565619013914</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I65" t="n">
-        <v>312.833228864215</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J65" t="n">
-        <v>330.1546680011149</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>27.35221967977619</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B66" t="n">
-        <v>85.19821519789829</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C66" t="n">
-        <v>158.0229193353552</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D66" t="n">
-        <v>182.9498940016072</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E66" t="n">
-        <v>208.9265609644308</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F66" t="n">
-        <v>234.9032279272544</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G66" t="n">
-        <v>260.8798949143229</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H66" t="n">
-        <v>286.8565619013914</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I66" t="n">
-        <v>312.833228864215</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J66" t="n">
-        <v>330.1546680011149</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>27.35221967977619</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B67" t="n">
-        <v>85.19821519789829</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C67" t="n">
-        <v>158.0229193353552</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D67" t="n">
-        <v>182.9498940016072</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E67" t="n">
-        <v>208.9265609644308</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F67" t="n">
-        <v>234.9032279272544</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G67" t="n">
-        <v>260.8798949143229</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H67" t="n">
-        <v>286.8565619013914</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I67" t="n">
-        <v>312.833228864215</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J67" t="n">
-        <v>330.1546680011149</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>27.35221967977619</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B68" t="n">
-        <v>85.19821519789829</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C68" t="n">
-        <v>158.0229193353552</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D68" t="n">
-        <v>182.9498940016072</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E68" t="n">
-        <v>208.9265609644308</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F68" t="n">
-        <v>234.9032279272544</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G68" t="n">
-        <v>260.8798949143229</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H68" t="n">
-        <v>286.8565619013914</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I68" t="n">
-        <v>312.833228864215</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J68" t="n">
-        <v>330.1546680011149</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>27.35221967977619</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B69" t="n">
-        <v>85.19821519789829</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C69" t="n">
-        <v>158.0229193353552</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D69" t="n">
-        <v>182.9498940016072</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E69" t="n">
-        <v>208.9265609644308</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F69" t="n">
-        <v>234.9032279272544</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G69" t="n">
-        <v>260.8798949143229</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H69" t="n">
-        <v>286.8565619013914</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I69" t="n">
-        <v>312.833228864215</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J69" t="n">
-        <v>330.1546680011149</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>27.35221967977619</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B70" t="n">
-        <v>85.19821519789829</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C70" t="n">
-        <v>158.0229193353552</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D70" t="n">
-        <v>182.9498940016072</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E70" t="n">
-        <v>208.9265609644308</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F70" t="n">
-        <v>234.9032279272544</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G70" t="n">
-        <v>260.8798949143229</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H70" t="n">
-        <v>286.8565619013914</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I70" t="n">
-        <v>312.833228864215</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J70" t="n">
-        <v>330.1546680011149</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>27.35221967977619</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B71" t="n">
-        <v>85.19821519789829</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C71" t="n">
-        <v>158.0229193353552</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D71" t="n">
-        <v>182.9498940016072</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E71" t="n">
-        <v>208.9265609644308</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F71" t="n">
-        <v>234.9032279272544</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G71" t="n">
-        <v>260.8798949143229</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H71" t="n">
-        <v>286.8565619013914</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I71" t="n">
-        <v>312.833228864215</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J71" t="n">
-        <v>330.1546680011149</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>27.35221967977619</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B72" t="n">
-        <v>85.19821519789829</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C72" t="n">
-        <v>158.0229193353552</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D72" t="n">
-        <v>182.9498940016072</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E72" t="n">
-        <v>208.9265609644308</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F72" t="n">
-        <v>234.9032279272544</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G72" t="n">
-        <v>260.8798949143229</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H72" t="n">
-        <v>286.8565619013914</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I72" t="n">
-        <v>312.833228864215</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J72" t="n">
-        <v>330.1546680011149</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="73">
@@ -2792,194 +2632,154 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>27.35221967977619</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B74" t="n">
-        <v>85.19821519789829</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C74" t="n">
-        <v>158.0229193353552</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D74" t="n">
-        <v>182.9498940016072</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E74" t="n">
-        <v>208.9265609644308</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F74" t="n">
-        <v>234.9032279272544</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G74" t="n">
-        <v>260.8798949143229</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H74" t="n">
-        <v>286.8565619013914</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I74" t="n">
-        <v>312.833228864215</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J74" t="n">
-        <v>330.1546680011149</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>27.35221967977619</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B75" t="n">
-        <v>85.19821519789829</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C75" t="n">
-        <v>158.0229193353552</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D75" t="n">
-        <v>182.9498940016072</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E75" t="n">
-        <v>208.9265609644308</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F75" t="n">
-        <v>234.9032279272544</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G75" t="n">
-        <v>260.8798949143229</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H75" t="n">
-        <v>286.8565619013914</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I75" t="n">
-        <v>312.833228864215</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J75" t="n">
-        <v>330.1546680011149</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>27.35221967977619</v>
-      </c>
-      <c r="B76" t="n">
-        <v>85.19821519789829</v>
-      </c>
-      <c r="C76" t="n">
-        <v>158.0229193353552</v>
-      </c>
-      <c r="D76" t="n">
-        <v>182.9498940016072</v>
-      </c>
-      <c r="E76" t="n">
-        <v>208.9265609644308</v>
-      </c>
-      <c r="F76" t="n">
-        <v>234.9032279272544</v>
-      </c>
-      <c r="G76" t="n">
-        <v>260.8798949143229</v>
-      </c>
-      <c r="H76" t="n">
-        <v>286.8565619013914</v>
-      </c>
-      <c r="I76" t="n">
-        <v>312.833228864215</v>
-      </c>
-      <c r="J76" t="n">
-        <v>330.1546680011149</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>27.35221967977619</v>
-      </c>
-      <c r="B77" t="n">
-        <v>85.19821519789829</v>
-      </c>
-      <c r="C77" t="n">
-        <v>158.0229193353552</v>
-      </c>
-      <c r="D77" t="n">
-        <v>182.9498940016072</v>
-      </c>
-      <c r="E77" t="n">
-        <v>208.9265609644308</v>
-      </c>
-      <c r="F77" t="n">
-        <v>234.9032279272544</v>
-      </c>
-      <c r="G77" t="n">
-        <v>260.8798949143229</v>
-      </c>
-      <c r="H77" t="n">
-        <v>286.8565619013914</v>
-      </c>
-      <c r="I77" t="n">
-        <v>312.833228864215</v>
-      </c>
-      <c r="J77" t="n">
-        <v>330.1546680011149</v>
-      </c>
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>27.35221967977619</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B78" t="n">
-        <v>85.19821519789829</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C78" t="n">
-        <v>158.0229193353552</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D78" t="n">
-        <v>182.9498940016072</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E78" t="n">
-        <v>208.9265609644308</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F78" t="n">
-        <v>234.9032279272544</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G78" t="n">
-        <v>260.8798949143229</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H78" t="n">
-        <v>286.8565619013914</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I78" t="n">
-        <v>312.833228864215</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J78" t="n">
-        <v>330.1546680011149</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>27.35221967977619</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B79" t="n">
-        <v>85.19821519789829</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C79" t="n">
-        <v>158.0229193353552</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D79" t="n">
-        <v>182.9498940016072</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E79" t="n">
-        <v>208.9265609644308</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F79" t="n">
-        <v>234.9032279272544</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G79" t="n">
-        <v>260.8798949143229</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H79" t="n">
-        <v>286.8565619013914</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I79" t="n">
-        <v>312.833228864215</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J79" t="n">
-        <v>330.1546680011149</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="80">
@@ -3016,610 +2816,610 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>27.35221967977619</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B81" t="n">
-        <v>85.19821519789829</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C81" t="n">
-        <v>158.0229193353552</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D81" t="n">
-        <v>182.9498940016072</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E81" t="n">
-        <v>208.9265609644308</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F81" t="n">
-        <v>234.9032279272544</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G81" t="n">
-        <v>260.8798949143229</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H81" t="n">
-        <v>286.8565619013914</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I81" t="n">
-        <v>312.833228864215</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J81" t="n">
-        <v>330.1546680011149</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>27.35221967977619</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B82" t="n">
-        <v>85.19821519789829</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C82" t="n">
-        <v>158.0229193353552</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D82" t="n">
-        <v>182.9498940016072</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E82" t="n">
-        <v>208.9265609644308</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F82" t="n">
-        <v>234.9032279272544</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G82" t="n">
-        <v>260.8798949143229</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H82" t="n">
-        <v>286.8565619013914</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I82" t="n">
-        <v>312.833228864215</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J82" t="n">
-        <v>330.1546680011149</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>27.35221967977619</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B83" t="n">
-        <v>85.19821519789829</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C83" t="n">
-        <v>158.0229193353552</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D83" t="n">
-        <v>182.9498940016072</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E83" t="n">
-        <v>208.9265609644308</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F83" t="n">
-        <v>234.9032279272544</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G83" t="n">
-        <v>260.8798949143229</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H83" t="n">
-        <v>286.8565619013914</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I83" t="n">
-        <v>312.833228864215</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J83" t="n">
-        <v>330.1546680011149</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>26.68458833938361</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B84" t="n">
-        <v>83.08713376351648</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C84" t="n">
-        <v>154.0632959758438</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D84" t="n">
-        <v>178.467471368713</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E84" t="n">
-        <v>203.3141021634172</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F84" t="n">
-        <v>228.1607329581214</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G84" t="n">
-        <v>253.0073637760158</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H84" t="n">
-        <v>277.8539945939102</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I84" t="n">
-        <v>302.7006253886143</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J84" t="n">
-        <v>319.2854401259028</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>26.68458833938361</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B85" t="n">
-        <v>83.08713376351648</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C85" t="n">
-        <v>154.0632959758438</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D85" t="n">
-        <v>178.467471368713</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E85" t="n">
-        <v>203.3141021634172</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F85" t="n">
-        <v>228.1607329581214</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G85" t="n">
-        <v>253.0073637760158</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H85" t="n">
-        <v>277.8539945939102</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I85" t="n">
-        <v>302.7006253886143</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J85" t="n">
-        <v>319.2854401259028</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>24.38468109648332</v>
+        <v>27.58505992400762</v>
       </c>
       <c r="B86" t="n">
-        <v>75.72759935481594</v>
+        <v>85.96073140351331</v>
       </c>
       <c r="C86" t="n">
-        <v>140.1394697449102</v>
+        <v>159.4893024931554</v>
       </c>
       <c r="D86" t="n">
-        <v>174.1789283441402</v>
+        <v>181.6063305025681</v>
       </c>
       <c r="E86" t="n">
-        <v>195.9397735261501</v>
+        <v>207.8107947778005</v>
       </c>
       <c r="F86" t="n">
-        <v>217.7006187081601</v>
+        <v>234.0152590530331</v>
       </c>
       <c r="G86" t="n">
-        <v>239.4614639104801</v>
+        <v>260.219723352723</v>
       </c>
       <c r="H86" t="n">
-        <v>261.2223091128003</v>
+        <v>286.4241876524131</v>
       </c>
       <c r="I86" t="n">
-        <v>282.9831542948101</v>
+        <v>312.6286519276455</v>
       </c>
       <c r="J86" t="n">
-        <v>297.9798170559827</v>
+        <v>329.984991208323</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>24.38468109648332</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B87" t="n">
-        <v>75.72759935481594</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C87" t="n">
-        <v>140.1394697449102</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D87" t="n">
-        <v>174.1789283441402</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E87" t="n">
-        <v>195.9397735261501</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F87" t="n">
-        <v>217.7006187081601</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G87" t="n">
-        <v>239.4614639104801</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H87" t="n">
-        <v>261.2223091128003</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I87" t="n">
-        <v>282.9831542948101</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J87" t="n">
-        <v>297.9798170559827</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>31.99675576982753</v>
+        <v>25.3213479751256</v>
       </c>
       <c r="B88" t="n">
-        <v>100.0950689516264</v>
+        <v>78.7474984455957</v>
       </c>
       <c r="C88" t="n">
-        <v>186.2541357089003</v>
+        <v>145.8837583029444</v>
       </c>
       <c r="D88" t="n">
-        <v>183.0020594292625</v>
+        <v>172.5413320982646</v>
       </c>
       <c r="E88" t="n">
-        <v>214.1843061400039</v>
+        <v>195.2669623302457</v>
       </c>
       <c r="F88" t="n">
-        <v>245.3665528507453</v>
+        <v>217.9925925622269</v>
       </c>
       <c r="G88" t="n">
-        <v>276.54879959059</v>
+        <v>240.7182228154187</v>
       </c>
       <c r="H88" t="n">
-        <v>307.7310463304349</v>
+        <v>263.4438530686105</v>
       </c>
       <c r="I88" t="n">
-        <v>338.9132930411762</v>
+        <v>286.1694833005916</v>
       </c>
       <c r="J88" t="n">
-        <v>358.476125702818</v>
+        <v>301.4976547183751</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>31.99675576982753</v>
+        <v>35.21876342095865</v>
       </c>
       <c r="B89" t="n">
-        <v>100.0950689516264</v>
+        <v>110.1582427863905</v>
       </c>
       <c r="C89" t="n">
-        <v>186.2541357089003</v>
+        <v>204.9568630427215</v>
       </c>
       <c r="D89" t="n">
-        <v>183.0020594292625</v>
+        <v>219.2292738611472</v>
       </c>
       <c r="E89" t="n">
-        <v>214.1843061400039</v>
+        <v>256.785617726839</v>
       </c>
       <c r="F89" t="n">
-        <v>245.3665528507453</v>
+        <v>294.3419615925308</v>
       </c>
       <c r="G89" t="n">
-        <v>276.54879959059</v>
+        <v>331.8983054932751</v>
       </c>
       <c r="H89" t="n">
-        <v>307.7310463304349</v>
+        <v>369.4546493940194</v>
       </c>
       <c r="I89" t="n">
-        <v>338.9132930411762</v>
+        <v>407.0109932597111</v>
       </c>
       <c r="J89" t="n">
-        <v>358.476125702818</v>
+        <v>431.2928571648218</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>27.58505992400762</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B90" t="n">
-        <v>85.96073140351331</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C90" t="n">
-        <v>159.4893024931554</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D90" t="n">
-        <v>181.6063305025681</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E90" t="n">
-        <v>207.8107947778005</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F90" t="n">
-        <v>234.0152590530331</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G90" t="n">
-        <v>260.219723352723</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H90" t="n">
-        <v>286.4241876524131</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I90" t="n">
-        <v>312.6286519276455</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J90" t="n">
-        <v>329.984991208323</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29.13344512439308</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B91" t="n">
-        <v>90.93702524093558</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C91" t="n">
-        <v>168.9335386661404</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D91" t="n">
-        <v>179.8480879491165</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E91" t="n">
-        <v>207.6117496701539</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F91" t="n">
-        <v>235.3754113911914</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G91" t="n">
-        <v>263.1390731381414</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H91" t="n">
-        <v>290.9027348850917</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I91" t="n">
-        <v>318.666396606129</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J91" t="n">
-        <v>336.591216820721</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>30.88871143787594</v>
+        <v>27.75382871269638</v>
       </c>
       <c r="B92" t="n">
-        <v>96.41329738660446</v>
+        <v>86.41038584799719</v>
       </c>
       <c r="C92" t="n">
-        <v>179.1031576527672</v>
+        <v>160.2169811238316</v>
       </c>
       <c r="D92" t="n">
-        <v>201.5133128547187</v>
+        <v>189.8236232303478</v>
       </c>
       <c r="E92" t="n">
-        <v>233.0027797885515</v>
+        <v>216.4716065443315</v>
       </c>
       <c r="F92" t="n">
-        <v>264.4922467223843</v>
+        <v>243.1195898583151</v>
       </c>
       <c r="G92" t="n">
-        <v>295.9817136856072</v>
+        <v>269.7675731971702</v>
       </c>
       <c r="H92" t="n">
-        <v>327.4711806488302</v>
+        <v>296.4155565360253</v>
       </c>
       <c r="I92" t="n">
-        <v>358.9606475826629</v>
+        <v>323.063539850009</v>
       </c>
       <c r="J92" t="n">
-        <v>379.6862739356196</v>
+        <v>341.0040994443511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>30.88871143787594</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B93" t="n">
-        <v>96.41329738660446</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C93" t="n">
-        <v>179.1031576527672</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D93" t="n">
-        <v>201.5133128547187</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E93" t="n">
-        <v>233.0027797885515</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F93" t="n">
-        <v>264.4922467223843</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G93" t="n">
-        <v>295.9817136856072</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H93" t="n">
-        <v>327.4711806488302</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I93" t="n">
-        <v>358.9606475826629</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J93" t="n">
-        <v>379.6862739356196</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>30.88871143787594</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B94" t="n">
-        <v>96.41329738660446</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C94" t="n">
-        <v>179.1031576527672</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D94" t="n">
-        <v>201.5133128547187</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E94" t="n">
-        <v>233.0027797885515</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F94" t="n">
-        <v>264.4922467223843</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G94" t="n">
-        <v>295.9817136856072</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H94" t="n">
-        <v>327.4711806488302</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I94" t="n">
-        <v>358.9606475826629</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J94" t="n">
-        <v>379.6862739356196</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>30.88871143787594</v>
+        <v>26.68458833938361</v>
       </c>
       <c r="B95" t="n">
-        <v>96.41329738660446</v>
+        <v>83.08713376351648</v>
       </c>
       <c r="C95" t="n">
-        <v>179.1031576527672</v>
+        <v>154.0632959758438</v>
       </c>
       <c r="D95" t="n">
-        <v>201.5133128547187</v>
+        <v>178.467471368713</v>
       </c>
       <c r="E95" t="n">
-        <v>233.0027797885515</v>
+        <v>203.3141021634172</v>
       </c>
       <c r="F95" t="n">
-        <v>264.4922467223843</v>
+        <v>228.1607329581214</v>
       </c>
       <c r="G95" t="n">
-        <v>295.9817136856072</v>
+        <v>253.0073637760158</v>
       </c>
       <c r="H95" t="n">
-        <v>327.4711806488302</v>
+        <v>277.8539945939102</v>
       </c>
       <c r="I95" t="n">
-        <v>358.9606475826629</v>
+        <v>302.7006253886143</v>
       </c>
       <c r="J95" t="n">
-        <v>379.6862739356196</v>
+        <v>319.2854401259028</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>30.88871143787594</v>
+        <v>24.38468109648332</v>
       </c>
       <c r="B96" t="n">
-        <v>96.41329738660446</v>
+        <v>75.72759935481594</v>
       </c>
       <c r="C96" t="n">
-        <v>179.1031576527672</v>
+        <v>140.1394697449102</v>
       </c>
       <c r="D96" t="n">
-        <v>201.5133128547187</v>
+        <v>174.1789283441402</v>
       </c>
       <c r="E96" t="n">
-        <v>233.0027797885515</v>
+        <v>195.9397735261501</v>
       </c>
       <c r="F96" t="n">
-        <v>264.4922467223843</v>
+        <v>217.7006187081601</v>
       </c>
       <c r="G96" t="n">
-        <v>295.9817136856072</v>
+        <v>239.4614639104801</v>
       </c>
       <c r="H96" t="n">
-        <v>327.4711806488302</v>
+        <v>261.2223091128003</v>
       </c>
       <c r="I96" t="n">
-        <v>358.9606475826629</v>
+        <v>282.9831542948101</v>
       </c>
       <c r="J96" t="n">
-        <v>379.6862739356196</v>
+        <v>297.9798170559827</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32.71050619192557</v>
+        <v>31.99675576982753</v>
       </c>
       <c r="B97" t="n">
-        <v>102.2743355308283</v>
+        <v>100.0950689516264</v>
       </c>
       <c r="C97" t="n">
-        <v>190.2346933008347</v>
+        <v>186.2541357089003</v>
       </c>
       <c r="D97" t="n">
-        <v>194.0848472557691</v>
+        <v>183.0020594292625</v>
       </c>
       <c r="E97" t="n">
-        <v>226.5775729570578</v>
+        <v>214.1843061400039</v>
       </c>
       <c r="F97" t="n">
-        <v>259.0702986583464</v>
+        <v>245.3665528507453</v>
       </c>
       <c r="G97" t="n">
-        <v>291.5630243899615</v>
+        <v>276.54879959059</v>
       </c>
       <c r="H97" t="n">
-        <v>324.0557501215768</v>
+        <v>307.7310463304349</v>
       </c>
       <c r="I97" t="n">
-        <v>356.5484758228653</v>
+        <v>338.9132930411762</v>
       </c>
       <c r="J97" t="n">
-        <v>377.2304025314221</v>
+        <v>358.476125702818</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>32.71050619192557</v>
+        <v>27.58505992400762</v>
       </c>
       <c r="B98" t="n">
-        <v>102.2743355308283</v>
+        <v>85.96073140351331</v>
       </c>
       <c r="C98" t="n">
-        <v>190.2346933008347</v>
+        <v>159.4893024931554</v>
       </c>
       <c r="D98" t="n">
-        <v>194.0848472557691</v>
+        <v>181.6063305025681</v>
       </c>
       <c r="E98" t="n">
-        <v>226.5775729570578</v>
+        <v>207.8107947778005</v>
       </c>
       <c r="F98" t="n">
-        <v>259.0702986583464</v>
+        <v>234.0152590530331</v>
       </c>
       <c r="G98" t="n">
-        <v>291.5630243899615</v>
+        <v>260.219723352723</v>
       </c>
       <c r="H98" t="n">
-        <v>324.0557501215768</v>
+        <v>286.4241876524131</v>
       </c>
       <c r="I98" t="n">
-        <v>356.5484758228653</v>
+        <v>312.6286519276455</v>
       </c>
       <c r="J98" t="n">
-        <v>377.2304025314221</v>
+        <v>329.984991208323</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32.71050619192557</v>
+        <v>29.13344512439308</v>
       </c>
       <c r="B99" t="n">
-        <v>102.2743355308283</v>
+        <v>90.93702524093558</v>
       </c>
       <c r="C99" t="n">
-        <v>190.2346933008347</v>
+        <v>168.9335386661404</v>
       </c>
       <c r="D99" t="n">
-        <v>194.0848472557691</v>
+        <v>179.8480879491165</v>
       </c>
       <c r="E99" t="n">
-        <v>226.5775729570578</v>
+        <v>207.6117496701539</v>
       </c>
       <c r="F99" t="n">
-        <v>259.0702986583464</v>
+        <v>235.3754113911914</v>
       </c>
       <c r="G99" t="n">
-        <v>291.5630243899615</v>
+        <v>263.1390731381414</v>
       </c>
       <c r="H99" t="n">
-        <v>324.0557501215768</v>
+        <v>290.9027348850917</v>
       </c>
       <c r="I99" t="n">
-        <v>356.5484758228653</v>
+        <v>318.666396606129</v>
       </c>
       <c r="J99" t="n">
-        <v>377.2304025314221</v>
+        <v>336.591216820721</v>
       </c>
     </row>
     <row r="100">
@@ -3656,226 +3456,226 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>32.71050619192557</v>
+        <v>30.88871143787594</v>
       </c>
       <c r="B101" t="n">
-        <v>102.2743355308283</v>
+        <v>96.41329738660446</v>
       </c>
       <c r="C101" t="n">
-        <v>190.2346933008347</v>
+        <v>179.1031576527672</v>
       </c>
       <c r="D101" t="n">
-        <v>194.0848472557691</v>
+        <v>201.5133128547187</v>
       </c>
       <c r="E101" t="n">
-        <v>226.5775729570578</v>
+        <v>233.0027797885515</v>
       </c>
       <c r="F101" t="n">
-        <v>259.0702986583464</v>
+        <v>264.4922467223843</v>
       </c>
       <c r="G101" t="n">
-        <v>291.5630243899615</v>
+        <v>295.9817136856072</v>
       </c>
       <c r="H101" t="n">
-        <v>324.0557501215768</v>
+        <v>327.4711806488302</v>
       </c>
       <c r="I101" t="n">
-        <v>356.5484758228653</v>
+        <v>358.9606475826629</v>
       </c>
       <c r="J101" t="n">
-        <v>377.2304025314221</v>
+        <v>379.6862739356196</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>32.71050619192557</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B102" t="n">
-        <v>102.2743355308283</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C102" t="n">
-        <v>190.2346933008347</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D102" t="n">
-        <v>194.0848472557691</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E102" t="n">
-        <v>226.5775729570578</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F102" t="n">
-        <v>259.0702986583464</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G102" t="n">
-        <v>291.5630243899615</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H102" t="n">
-        <v>324.0557501215768</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I102" t="n">
-        <v>356.5484758228653</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J102" t="n">
-        <v>377.2304025314221</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>32.71050619192557</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B103" t="n">
-        <v>102.2743355308283</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C103" t="n">
-        <v>190.2346933008347</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D103" t="n">
-        <v>194.0848472557691</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E103" t="n">
-        <v>226.5775729570578</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F103" t="n">
-        <v>259.0702986583464</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G103" t="n">
-        <v>291.5630243899615</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H103" t="n">
-        <v>324.0557501215768</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I103" t="n">
-        <v>356.5484758228653</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J103" t="n">
-        <v>377.2304025314221</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>32.71050619192557</v>
+        <v>36.22432217049666</v>
       </c>
       <c r="B104" t="n">
-        <v>102.2743355308283</v>
+        <v>113.63792642235</v>
       </c>
       <c r="C104" t="n">
-        <v>190.2346933008347</v>
+        <v>211.8968191546492</v>
       </c>
       <c r="D104" t="n">
-        <v>194.0848472557691</v>
+        <v>189.0446421522241</v>
       </c>
       <c r="E104" t="n">
-        <v>226.5775729570578</v>
+        <v>225.7730065928899</v>
       </c>
       <c r="F104" t="n">
-        <v>259.0702986583464</v>
+        <v>262.5013710335558</v>
       </c>
       <c r="G104" t="n">
-        <v>291.5630243899615</v>
+        <v>299.2297355085013</v>
       </c>
       <c r="H104" t="n">
-        <v>324.0557501215768</v>
+        <v>335.9580999834469</v>
       </c>
       <c r="I104" t="n">
-        <v>356.5484758228653</v>
+        <v>372.6864644241126</v>
       </c>
       <c r="J104" t="n">
-        <v>377.2304025314221</v>
+        <v>395.0160257048893</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31.33171567004917</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B105" t="n">
-        <v>97.93868533117683</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C105" t="n">
-        <v>182.13585164161</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D105" t="n">
-        <v>185.1114082734093</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E105" t="n">
-        <v>215.6172541183498</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F105" t="n">
-        <v>246.1230999632903</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G105" t="n">
-        <v>276.6289458367029</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H105" t="n">
-        <v>307.1347917101156</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I105" t="n">
-        <v>337.6406375550561</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J105" t="n">
-        <v>357.0140621068473</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>31.33171567004917</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B106" t="n">
-        <v>97.93868533117683</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C106" t="n">
-        <v>182.13585164161</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D106" t="n">
-        <v>185.1114082734093</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E106" t="n">
-        <v>215.6172541183498</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F106" t="n">
-        <v>246.1230999632903</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G106" t="n">
-        <v>276.6289458367029</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H106" t="n">
-        <v>307.1347917101156</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I106" t="n">
-        <v>337.6406375550561</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J106" t="n">
-        <v>357.0140621068473</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>31.33171567004917</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B107" t="n">
-        <v>97.93868533117683</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C107" t="n">
-        <v>182.13585164161</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D107" t="n">
-        <v>185.1114082734093</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E107" t="n">
-        <v>215.6172541183498</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F107" t="n">
-        <v>246.1230999632903</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G107" t="n">
-        <v>276.6289458367029</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H107" t="n">
-        <v>307.1347917101156</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I107" t="n">
-        <v>337.6406375550561</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J107" t="n">
-        <v>357.0140621068473</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="108">
@@ -3912,194 +3712,194 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>31.33171567004917</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B109" t="n">
-        <v>97.93868533117683</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C109" t="n">
-        <v>182.13585164161</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D109" t="n">
-        <v>185.1114082734093</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E109" t="n">
-        <v>215.6172541183498</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F109" t="n">
-        <v>246.1230999632903</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G109" t="n">
-        <v>276.6289458367029</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H109" t="n">
-        <v>307.1347917101156</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I109" t="n">
-        <v>337.6406375550561</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J109" t="n">
-        <v>357.0140621068473</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31.33171567004917</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B110" t="n">
-        <v>97.93868533117683</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C110" t="n">
-        <v>182.13585164161</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D110" t="n">
-        <v>185.1114082734093</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E110" t="n">
-        <v>215.6172541183498</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F110" t="n">
-        <v>246.1230999632903</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G110" t="n">
-        <v>276.6289458367029</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H110" t="n">
-        <v>307.1347917101156</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I110" t="n">
-        <v>337.6406375550561</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J110" t="n">
-        <v>357.0140621068473</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>31.33171567004917</v>
+        <v>31.99675576982753</v>
       </c>
       <c r="B111" t="n">
-        <v>97.93868533117683</v>
+        <v>100.0950689516264</v>
       </c>
       <c r="C111" t="n">
-        <v>182.13585164161</v>
+        <v>186.2541357089003</v>
       </c>
       <c r="D111" t="n">
-        <v>185.1114082734093</v>
+        <v>183.0020594292625</v>
       </c>
       <c r="E111" t="n">
-        <v>215.6172541183498</v>
+        <v>214.1843061400039</v>
       </c>
       <c r="F111" t="n">
-        <v>246.1230999632903</v>
+        <v>245.3665528507453</v>
       </c>
       <c r="G111" t="n">
-        <v>276.6289458367029</v>
+        <v>276.54879959059</v>
       </c>
       <c r="H111" t="n">
-        <v>307.1347917101156</v>
+        <v>307.7310463304349</v>
       </c>
       <c r="I111" t="n">
-        <v>337.6406375550561</v>
+        <v>338.9132930411762</v>
       </c>
       <c r="J111" t="n">
-        <v>357.0140621068473</v>
+        <v>358.476125702818</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>31.33171567004917</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B112" t="n">
-        <v>97.93868533117683</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C112" t="n">
-        <v>182.13585164161</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D112" t="n">
-        <v>185.1114082734093</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E112" t="n">
-        <v>215.6172541183498</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F112" t="n">
-        <v>246.1230999632903</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G112" t="n">
-        <v>276.6289458367029</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H112" t="n">
-        <v>307.1347917101156</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I112" t="n">
-        <v>337.6406375550561</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J112" t="n">
-        <v>357.0140621068473</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>31.33171567004917</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B113" t="n">
-        <v>97.93868533117683</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C113" t="n">
-        <v>182.13585164161</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D113" t="n">
-        <v>185.1114082734093</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E113" t="n">
-        <v>215.6172541183498</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F113" t="n">
-        <v>246.1230999632903</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G113" t="n">
-        <v>276.6289458367029</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H113" t="n">
-        <v>307.1347917101156</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I113" t="n">
-        <v>337.6406375550561</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J113" t="n">
-        <v>357.0140621068473</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>31.33171567004917</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B114" t="n">
-        <v>97.93868533117683</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C114" t="n">
-        <v>182.13585164161</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D114" t="n">
-        <v>185.1114082734093</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E114" t="n">
-        <v>215.6172541183498</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F114" t="n">
-        <v>246.1230999632903</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G114" t="n">
-        <v>276.6289458367029</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H114" t="n">
-        <v>307.1347917101156</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I114" t="n">
-        <v>337.6406375550561</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J114" t="n">
-        <v>357.0140621068473</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="115">
@@ -4135,227 +3935,187 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>31.33171567004917</v>
-      </c>
-      <c r="B116" t="n">
-        <v>97.93868533117683</v>
-      </c>
-      <c r="C116" t="n">
-        <v>182.13585164161</v>
-      </c>
-      <c r="D116" t="n">
-        <v>185.1114082734093</v>
-      </c>
-      <c r="E116" t="n">
-        <v>215.6172541183498</v>
-      </c>
-      <c r="F116" t="n">
-        <v>246.1230999632903</v>
-      </c>
-      <c r="G116" t="n">
-        <v>276.6289458367029</v>
-      </c>
-      <c r="H116" t="n">
-        <v>307.1347917101156</v>
-      </c>
-      <c r="I116" t="n">
-        <v>337.6406375550561</v>
-      </c>
-      <c r="J116" t="n">
-        <v>357.0140621068473</v>
-      </c>
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>31.33171567004917</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B117" t="n">
-        <v>97.93868533117683</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C117" t="n">
-        <v>182.13585164161</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D117" t="n">
-        <v>185.1114082734093</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E117" t="n">
-        <v>215.6172541183498</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F117" t="n">
-        <v>246.1230999632903</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G117" t="n">
-        <v>276.6289458367029</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H117" t="n">
-        <v>307.1347917101156</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I117" t="n">
-        <v>337.6406375550561</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J117" t="n">
-        <v>357.0140621068473</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>31.33171567004917</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B118" t="n">
-        <v>97.93868533117683</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C118" t="n">
-        <v>182.13585164161</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D118" t="n">
-        <v>185.1114082734093</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E118" t="n">
-        <v>215.6172541183498</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F118" t="n">
-        <v>246.1230999632903</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G118" t="n">
-        <v>276.6289458367029</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H118" t="n">
-        <v>307.1347917101156</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I118" t="n">
-        <v>337.6406375550561</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J118" t="n">
-        <v>357.0140621068473</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>31.33171567004917</v>
-      </c>
-      <c r="B119" t="n">
-        <v>97.93868533117683</v>
-      </c>
-      <c r="C119" t="n">
-        <v>182.13585164161</v>
-      </c>
-      <c r="D119" t="n">
-        <v>185.1114082734093</v>
-      </c>
-      <c r="E119" t="n">
-        <v>215.6172541183498</v>
-      </c>
-      <c r="F119" t="n">
-        <v>246.1230999632903</v>
-      </c>
-      <c r="G119" t="n">
-        <v>276.6289458367029</v>
-      </c>
-      <c r="H119" t="n">
-        <v>307.1347917101156</v>
-      </c>
-      <c r="I119" t="n">
-        <v>337.6406375550561</v>
-      </c>
-      <c r="J119" t="n">
-        <v>357.0140621068473</v>
-      </c>
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>31.33171567004917</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B120" t="n">
-        <v>97.93868533117683</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C120" t="n">
-        <v>182.13585164161</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D120" t="n">
-        <v>185.1114082734093</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E120" t="n">
-        <v>215.6172541183498</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F120" t="n">
-        <v>246.1230999632903</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G120" t="n">
-        <v>276.6289458367029</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H120" t="n">
-        <v>307.1347917101156</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I120" t="n">
-        <v>337.6406375550561</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J120" t="n">
-        <v>357.0140621068473</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>31.33171567004917</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B121" t="n">
-        <v>97.93868533117683</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C121" t="n">
-        <v>182.13585164161</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D121" t="n">
-        <v>185.1114082734093</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E121" t="n">
-        <v>215.6172541183498</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F121" t="n">
-        <v>246.1230999632903</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G121" t="n">
-        <v>276.6289458367029</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H121" t="n">
-        <v>307.1347917101156</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I121" t="n">
-        <v>337.6406375550561</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J121" t="n">
-        <v>357.0140621068473</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>31.33171567004917</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B122" t="n">
-        <v>97.93868533117683</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C122" t="n">
-        <v>182.13585164161</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D122" t="n">
-        <v>185.1114082734093</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E122" t="n">
-        <v>215.6172541183498</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F122" t="n">
-        <v>246.1230999632903</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G122" t="n">
-        <v>276.6289458367029</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H122" t="n">
-        <v>307.1347917101156</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I122" t="n">
-        <v>337.6406375550561</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J122" t="n">
-        <v>357.0140621068473</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="123">
@@ -4424,546 +4184,526 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>31.33171567004917</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B125" t="n">
-        <v>97.93868533117683</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C125" t="n">
-        <v>182.13585164161</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D125" t="n">
-        <v>185.1114082734093</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E125" t="n">
-        <v>215.6172541183498</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F125" t="n">
-        <v>246.1230999632903</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G125" t="n">
-        <v>276.6289458367029</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H125" t="n">
-        <v>307.1347917101156</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I125" t="n">
-        <v>337.6406375550561</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J125" t="n">
-        <v>357.0140621068473</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>31.33171567004917</v>
+        <v>30.88871143787594</v>
       </c>
       <c r="B126" t="n">
-        <v>97.93868533117683</v>
+        <v>96.41329738660446</v>
       </c>
       <c r="C126" t="n">
-        <v>182.13585164161</v>
+        <v>179.1031576527672</v>
       </c>
       <c r="D126" t="n">
-        <v>185.1114082734093</v>
+        <v>201.5133128547187</v>
       </c>
       <c r="E126" t="n">
-        <v>215.6172541183498</v>
+        <v>233.0027797885515</v>
       </c>
       <c r="F126" t="n">
-        <v>246.1230999632903</v>
+        <v>264.4922467223843</v>
       </c>
       <c r="G126" t="n">
-        <v>276.6289458367029</v>
+        <v>295.9817136856072</v>
       </c>
       <c r="H126" t="n">
-        <v>307.1347917101156</v>
+        <v>327.4711806488302</v>
       </c>
       <c r="I126" t="n">
-        <v>337.6406375550561</v>
+        <v>358.9606475826629</v>
       </c>
       <c r="J126" t="n">
-        <v>357.0140621068473</v>
+        <v>379.6862739356196</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>31.33171567004917</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B127" t="n">
-        <v>97.93868533117683</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C127" t="n">
-        <v>182.13585164161</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D127" t="n">
-        <v>185.1114082734093</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E127" t="n">
-        <v>215.6172541183498</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F127" t="n">
-        <v>246.1230999632903</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G127" t="n">
-        <v>276.6289458367029</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H127" t="n">
-        <v>307.1347917101156</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I127" t="n">
-        <v>337.6406375550561</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J127" t="n">
-        <v>357.0140621068473</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>31.33171567004917</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B128" t="n">
-        <v>97.93868533117683</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C128" t="n">
-        <v>182.13585164161</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D128" t="n">
-        <v>185.1114082734093</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E128" t="n">
-        <v>215.6172541183498</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F128" t="n">
-        <v>246.1230999632903</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G128" t="n">
-        <v>276.6289458367029</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H128" t="n">
-        <v>307.1347917101156</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I128" t="n">
-        <v>337.6406375550561</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J128" t="n">
-        <v>357.0140621068473</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>31.33171567004917</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B129" t="n">
-        <v>97.93868533117683</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C129" t="n">
-        <v>182.13585164161</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D129" t="n">
-        <v>185.1114082734093</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E129" t="n">
-        <v>215.6172541183498</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F129" t="n">
-        <v>246.1230999632903</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G129" t="n">
-        <v>276.6289458367029</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H129" t="n">
-        <v>307.1347917101156</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I129" t="n">
-        <v>337.6406375550561</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J129" t="n">
-        <v>357.0140621068473</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>31.33171567004917</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B130" t="n">
-        <v>97.93868533117683</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C130" t="n">
-        <v>182.13585164161</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D130" t="n">
-        <v>185.1114082734093</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E130" t="n">
-        <v>215.6172541183498</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F130" t="n">
-        <v>246.1230999632903</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G130" t="n">
-        <v>276.6289458367029</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H130" t="n">
-        <v>307.1347917101156</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I130" t="n">
-        <v>337.6406375550561</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J130" t="n">
-        <v>357.0140621068473</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>31.33171567004917</v>
+        <v>30.12521594155608</v>
       </c>
       <c r="B131" t="n">
-        <v>97.93868533117683</v>
+        <v>94.00463975125518</v>
       </c>
       <c r="C131" t="n">
-        <v>182.13585164161</v>
+        <v>174.5930353381838</v>
       </c>
       <c r="D131" t="n">
-        <v>185.1114082734093</v>
+        <v>188.7280999523346</v>
       </c>
       <c r="E131" t="n">
-        <v>215.6172541183498</v>
+        <v>217.6991890600318</v>
       </c>
       <c r="F131" t="n">
-        <v>246.1230999632903</v>
+        <v>246.6702781677291</v>
       </c>
       <c r="G131" t="n">
-        <v>276.6289458367029</v>
+        <v>275.6413673024661</v>
       </c>
       <c r="H131" t="n">
-        <v>307.1347917101156</v>
+        <v>304.612456437203</v>
       </c>
       <c r="I131" t="n">
-        <v>337.6406375550561</v>
+        <v>333.5835455449002</v>
       </c>
       <c r="J131" t="n">
-        <v>357.0140621068473</v>
+        <v>352.4264353275803</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>31.33171567004917</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B132" t="n">
-        <v>97.93868533117683</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C132" t="n">
-        <v>182.13585164161</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D132" t="n">
-        <v>185.1114082734093</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E132" t="n">
-        <v>215.6172541183498</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F132" t="n">
-        <v>246.1230999632903</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G132" t="n">
-        <v>276.6289458367029</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H132" t="n">
-        <v>307.1347917101156</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I132" t="n">
-        <v>337.6406375550561</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J132" t="n">
-        <v>357.0140621068473</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>31.33171567004917</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B133" t="n">
-        <v>97.93868533117683</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C133" t="n">
-        <v>182.13585164161</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D133" t="n">
-        <v>185.1114082734093</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E133" t="n">
-        <v>215.6172541183498</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F133" t="n">
-        <v>246.1230999632903</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G133" t="n">
-        <v>276.6289458367029</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H133" t="n">
-        <v>307.1347917101156</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I133" t="n">
-        <v>337.6406375550561</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J133" t="n">
-        <v>357.0140621068473</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>31.33171567004917</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B134" t="n">
-        <v>97.93868533117683</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C134" t="n">
-        <v>182.13585164161</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D134" t="n">
-        <v>185.1114082734093</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E134" t="n">
-        <v>215.6172541183498</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F134" t="n">
-        <v>246.1230999632903</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G134" t="n">
-        <v>276.6289458367029</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H134" t="n">
-        <v>307.1347917101156</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I134" t="n">
-        <v>337.6406375550561</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J134" t="n">
-        <v>357.0140621068473</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>31.33171567004917</v>
-      </c>
-      <c r="B135" t="n">
-        <v>97.93868533117683</v>
-      </c>
-      <c r="C135" t="n">
-        <v>182.13585164161</v>
-      </c>
-      <c r="D135" t="n">
-        <v>185.1114082734093</v>
-      </c>
-      <c r="E135" t="n">
-        <v>215.6172541183498</v>
-      </c>
-      <c r="F135" t="n">
-        <v>246.1230999632903</v>
-      </c>
-      <c r="G135" t="n">
-        <v>276.6289458367029</v>
-      </c>
-      <c r="H135" t="n">
-        <v>307.1347917101156</v>
-      </c>
-      <c r="I135" t="n">
-        <v>337.6406375550561</v>
-      </c>
-      <c r="J135" t="n">
-        <v>357.0140621068473</v>
-      </c>
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>31.33171567004917</v>
+        <v>27.75382871269638</v>
       </c>
       <c r="B136" t="n">
-        <v>97.93868533117683</v>
+        <v>86.41038584799719</v>
       </c>
       <c r="C136" t="n">
-        <v>182.13585164161</v>
+        <v>160.2169811238316</v>
       </c>
       <c r="D136" t="n">
-        <v>185.1114082734093</v>
+        <v>189.8236232303478</v>
       </c>
       <c r="E136" t="n">
-        <v>215.6172541183498</v>
+        <v>216.4716065443315</v>
       </c>
       <c r="F136" t="n">
-        <v>246.1230999632903</v>
+        <v>243.1195898583151</v>
       </c>
       <c r="G136" t="n">
-        <v>276.6289458367029</v>
+        <v>269.7675731971702</v>
       </c>
       <c r="H136" t="n">
-        <v>307.1347917101156</v>
+        <v>296.4155565360253</v>
       </c>
       <c r="I136" t="n">
-        <v>337.6406375550561</v>
+        <v>323.063539850009</v>
       </c>
       <c r="J136" t="n">
-        <v>357.0140621068473</v>
+        <v>341.0040994443511</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>31.33171567004917</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B137" t="n">
-        <v>97.93868533117683</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C137" t="n">
-        <v>182.13585164161</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D137" t="n">
-        <v>185.1114082734093</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E137" t="n">
-        <v>215.6172541183498</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F137" t="n">
-        <v>246.1230999632903</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G137" t="n">
-        <v>276.6289458367029</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H137" t="n">
-        <v>307.1347917101156</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I137" t="n">
-        <v>337.6406375550561</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J137" t="n">
-        <v>357.0140621068473</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>31.33171567004917</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B138" t="n">
-        <v>97.93868533117683</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C138" t="n">
-        <v>182.13585164161</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D138" t="n">
-        <v>185.1114082734093</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E138" t="n">
-        <v>215.6172541183498</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F138" t="n">
-        <v>246.1230999632903</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G138" t="n">
-        <v>276.6289458367029</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H138" t="n">
-        <v>307.1347917101156</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I138" t="n">
-        <v>337.6406375550561</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J138" t="n">
-        <v>357.0140621068473</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>31.33171567004917</v>
+        <v>29.49544025871353</v>
       </c>
       <c r="B139" t="n">
-        <v>97.93868533117683</v>
+        <v>92.06318200128307</v>
       </c>
       <c r="C139" t="n">
-        <v>182.13585164161</v>
+        <v>171.020332290088</v>
       </c>
       <c r="D139" t="n">
-        <v>185.1114082734093</v>
+        <v>184.8446299564532</v>
       </c>
       <c r="E139" t="n">
-        <v>215.6172541183498</v>
+        <v>213.4259661475206</v>
       </c>
       <c r="F139" t="n">
-        <v>246.1230999632903</v>
+        <v>242.0073023385881</v>
       </c>
       <c r="G139" t="n">
-        <v>276.6289458367029</v>
+        <v>270.5886385563314</v>
       </c>
       <c r="H139" t="n">
-        <v>307.1347917101156</v>
+        <v>299.1699747740748</v>
       </c>
       <c r="I139" t="n">
-        <v>337.6406375550561</v>
+        <v>327.7513109651422</v>
       </c>
       <c r="J139" t="n">
-        <v>357.0140621068473</v>
+        <v>346.3051234061305</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>31.33171567004917</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B140" t="n">
-        <v>97.93868533117683</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C140" t="n">
-        <v>182.13585164161</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D140" t="n">
-        <v>185.1114082734093</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E140" t="n">
-        <v>215.6172541183498</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F140" t="n">
-        <v>246.1230999632903</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G140" t="n">
-        <v>276.6289458367029</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H140" t="n">
-        <v>307.1347917101156</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I140" t="n">
-        <v>337.6406375550561</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J140" t="n">
-        <v>357.0140621068473</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>31.33171567004917</v>
+        <v>35.24429207504045</v>
       </c>
       <c r="B141" t="n">
-        <v>97.93868533117683</v>
+        <v>106.0761369874818</v>
       </c>
       <c r="C141" t="n">
-        <v>182.13585164161</v>
+        <v>191.5660353657491</v>
       </c>
       <c r="D141" t="n">
-        <v>185.1114082734093</v>
+        <v>812.7420832892059</v>
       </c>
       <c r="E141" t="n">
-        <v>215.6172541183498</v>
+        <v>899.1203128171546</v>
       </c>
       <c r="F141" t="n">
-        <v>246.1230999632903</v>
+        <v>985.4985423451035</v>
       </c>
       <c r="G141" t="n">
-        <v>276.6289458367029</v>
+        <v>1071.876771953672</v>
       </c>
       <c r="H141" t="n">
-        <v>307.1347917101156</v>
+        <v>1158.25500156224</v>
       </c>
       <c r="I141" t="n">
-        <v>337.6406375550561</v>
+        <v>1244.633231090189</v>
       </c>
       <c r="J141" t="n">
-        <v>357.0140621068473</v>
+        <v>1322.830894479422</v>
       </c>
     </row>
     <row r="142">
@@ -5032,290 +4772,290 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>30.12521594155608</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B144" t="n">
-        <v>94.00463975125518</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C144" t="n">
-        <v>174.5930353381838</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D144" t="n">
-        <v>188.7280999523346</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E144" t="n">
-        <v>217.6991890600318</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F144" t="n">
-        <v>246.6702781677291</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G144" t="n">
-        <v>275.6413673024661</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H144" t="n">
-        <v>304.612456437203</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I144" t="n">
-        <v>333.5835455449002</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J144" t="n">
-        <v>352.4264353275803</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>30.12521594155608</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B145" t="n">
-        <v>94.00463975125518</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C145" t="n">
-        <v>174.5930353381838</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D145" t="n">
-        <v>188.7280999523346</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E145" t="n">
-        <v>217.6991890600318</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F145" t="n">
-        <v>246.6702781677291</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G145" t="n">
-        <v>275.6413673024661</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H145" t="n">
-        <v>304.612456437203</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I145" t="n">
-        <v>333.5835455449002</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J145" t="n">
-        <v>352.4264353275803</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>30.12521594155608</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B146" t="n">
-        <v>94.00463975125518</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C146" t="n">
-        <v>174.5930353381838</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D146" t="n">
-        <v>188.7280999523346</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E146" t="n">
-        <v>217.6991890600318</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F146" t="n">
-        <v>246.6702781677291</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G146" t="n">
-        <v>275.6413673024661</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H146" t="n">
-        <v>304.612456437203</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I146" t="n">
-        <v>333.5835455449002</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J146" t="n">
-        <v>352.4264353275803</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>30.12521594155608</v>
+        <v>25.00550949856681</v>
       </c>
       <c r="B147" t="n">
-        <v>94.00463975125518</v>
+        <v>77.78639917049028</v>
       </c>
       <c r="C147" t="n">
-        <v>174.5930353381838</v>
+        <v>144.1328738323626</v>
       </c>
       <c r="D147" t="n">
-        <v>188.7280999523346</v>
+        <v>161.1917261208974</v>
       </c>
       <c r="E147" t="n">
-        <v>217.6991890600318</v>
+        <v>182.2879421671017</v>
       </c>
       <c r="F147" t="n">
-        <v>246.6702781677291</v>
+        <v>203.3841582133061</v>
       </c>
       <c r="G147" t="n">
-        <v>275.6413673024661</v>
+        <v>224.4803742792003</v>
       </c>
       <c r="H147" t="n">
-        <v>304.612456437203</v>
+        <v>245.5765903450944</v>
       </c>
       <c r="I147" t="n">
-        <v>333.5835455449002</v>
+        <v>266.6728063912988</v>
       </c>
       <c r="J147" t="n">
-        <v>352.4264353275803</v>
+        <v>280.6200431044026</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>30.12521594155608</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B148" t="n">
-        <v>94.00463975125518</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C148" t="n">
-        <v>174.5930353381838</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D148" t="n">
-        <v>188.7280999523346</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E148" t="n">
-        <v>217.6991890600318</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F148" t="n">
-        <v>246.6702781677291</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G148" t="n">
-        <v>275.6413673024661</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H148" t="n">
-        <v>304.612456437203</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I148" t="n">
-        <v>333.5835455449002</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J148" t="n">
-        <v>352.4264353275803</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>36.22432217049666</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B149" t="n">
-        <v>113.63792642235</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C149" t="n">
-        <v>211.8968191546492</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D149" t="n">
-        <v>189.0446421522241</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E149" t="n">
-        <v>225.7730065928899</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F149" t="n">
-        <v>262.5013710335558</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G149" t="n">
-        <v>299.2297355085013</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H149" t="n">
-        <v>335.9580999834469</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I149" t="n">
-        <v>372.6864644241126</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J149" t="n">
-        <v>395.0160257048893</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>25.00550949856681</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B150" t="n">
-        <v>77.78639917049028</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C150" t="n">
-        <v>144.1328738323626</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D150" t="n">
-        <v>161.1917261208974</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E150" t="n">
-        <v>182.2879421671017</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F150" t="n">
-        <v>203.3841582133061</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G150" t="n">
-        <v>224.4803742792003</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H150" t="n">
-        <v>245.5765903450944</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I150" t="n">
-        <v>266.6728063912988</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J150" t="n">
-        <v>280.6200431044026</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>25.00550949856681</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B151" t="n">
-        <v>77.78639917049028</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C151" t="n">
-        <v>144.1328738323626</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D151" t="n">
-        <v>161.1917261208974</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E151" t="n">
-        <v>182.2879421671017</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F151" t="n">
-        <v>203.3841582133061</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G151" t="n">
-        <v>224.4803742792003</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H151" t="n">
-        <v>245.5765903450944</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I151" t="n">
-        <v>266.6728063912988</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J151" t="n">
-        <v>280.6200431044026</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>25.00550949856681</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B152" t="n">
-        <v>77.78639917049028</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C152" t="n">
-        <v>144.1328738323626</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D152" t="n">
-        <v>161.1917261208974</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E152" t="n">
-        <v>182.2879421671017</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F152" t="n">
-        <v>203.3841582133061</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G152" t="n">
-        <v>224.4803742792003</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H152" t="n">
-        <v>245.5765903450944</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I152" t="n">
-        <v>266.6728063912988</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J152" t="n">
-        <v>280.6200431044026</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="153">
@@ -5352,130 +5092,130 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>25.00550949856681</v>
+        <v>27.21706900154975</v>
       </c>
       <c r="B154" t="n">
-        <v>77.78639917049028</v>
+        <v>84.80784590757493</v>
       </c>
       <c r="C154" t="n">
-        <v>144.1328738323626</v>
+        <v>157.3416726244554</v>
       </c>
       <c r="D154" t="n">
-        <v>161.1917261208974</v>
+        <v>172.3895062586104</v>
       </c>
       <c r="E154" t="n">
-        <v>182.2879421671017</v>
+        <v>196.9633400077095</v>
       </c>
       <c r="F154" t="n">
-        <v>203.3841582133061</v>
+        <v>221.5371737568085</v>
       </c>
       <c r="G154" t="n">
-        <v>224.4803742792003</v>
+        <v>246.1110075288431</v>
       </c>
       <c r="H154" t="n">
-        <v>245.5765903450944</v>
+        <v>270.6848413008777</v>
       </c>
       <c r="I154" t="n">
-        <v>266.6728063912988</v>
+        <v>295.2586750499767</v>
       </c>
       <c r="J154" t="n">
-        <v>280.6200431044026</v>
+        <v>311.3343754105554</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>25.00550949856681</v>
+        <v>32.71050619192557</v>
       </c>
       <c r="B155" t="n">
-        <v>77.78639917049028</v>
+        <v>102.2743355308283</v>
       </c>
       <c r="C155" t="n">
-        <v>144.1328738323626</v>
+        <v>190.2346933008347</v>
       </c>
       <c r="D155" t="n">
-        <v>161.1917261208974</v>
+        <v>194.0848472557691</v>
       </c>
       <c r="E155" t="n">
-        <v>182.2879421671017</v>
+        <v>226.5775729570578</v>
       </c>
       <c r="F155" t="n">
-        <v>203.3841582133061</v>
+        <v>259.0702986583464</v>
       </c>
       <c r="G155" t="n">
-        <v>224.4803742792003</v>
+        <v>291.5630243899615</v>
       </c>
       <c r="H155" t="n">
-        <v>245.5765903450944</v>
+        <v>324.0557501215768</v>
       </c>
       <c r="I155" t="n">
-        <v>266.6728063912988</v>
+        <v>356.5484758228653</v>
       </c>
       <c r="J155" t="n">
-        <v>280.6200431044026</v>
+        <v>377.2304025314221</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>25.00550949856681</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B156" t="n">
-        <v>77.78639917049028</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C156" t="n">
-        <v>144.1328738323626</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D156" t="n">
-        <v>161.1917261208974</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E156" t="n">
-        <v>182.2879421671017</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F156" t="n">
-        <v>203.3841582133061</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G156" t="n">
-        <v>224.4803742792003</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H156" t="n">
-        <v>245.5765903450944</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I156" t="n">
-        <v>266.6728063912988</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J156" t="n">
-        <v>280.6200431044026</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>25.00550949856681</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B157" t="n">
-        <v>77.78639917049028</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C157" t="n">
-        <v>144.1328738323626</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D157" t="n">
-        <v>161.1917261208974</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E157" t="n">
-        <v>182.2879421671017</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F157" t="n">
-        <v>203.3841582133061</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G157" t="n">
-        <v>224.4803742792003</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H157" t="n">
-        <v>245.5765903450944</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I157" t="n">
-        <v>266.6728063912988</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J157" t="n">
-        <v>280.6200431044026</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="158">
@@ -5512,226 +5252,642 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>25.00550949856681</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B159" t="n">
-        <v>77.78639917049028</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C159" t="n">
-        <v>144.1328738323626</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D159" t="n">
-        <v>161.1917261208974</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E159" t="n">
-        <v>182.2879421671017</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F159" t="n">
-        <v>203.3841582133061</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G159" t="n">
-        <v>224.4803742792003</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H159" t="n">
-        <v>245.5765903450944</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I159" t="n">
-        <v>266.6728063912988</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J159" t="n">
-        <v>280.6200431044026</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>25.00550949856681</v>
+        <v>26.68458833938361</v>
       </c>
       <c r="B160" t="n">
-        <v>77.78639917049028</v>
+        <v>83.08713376351648</v>
       </c>
       <c r="C160" t="n">
-        <v>144.1328738323626</v>
+        <v>154.0632959758438</v>
       </c>
       <c r="D160" t="n">
-        <v>161.1917261208974</v>
+        <v>178.467471368713</v>
       </c>
       <c r="E160" t="n">
-        <v>182.2879421671017</v>
+        <v>203.3141021634172</v>
       </c>
       <c r="F160" t="n">
-        <v>203.3841582133061</v>
+        <v>228.1607329581214</v>
       </c>
       <c r="G160" t="n">
-        <v>224.4803742792003</v>
+        <v>253.0073637760158</v>
       </c>
       <c r="H160" t="n">
-        <v>245.5765903450944</v>
+        <v>277.8539945939102</v>
       </c>
       <c r="I160" t="n">
-        <v>266.6728063912988</v>
+        <v>302.7006253886143</v>
       </c>
       <c r="J160" t="n">
-        <v>280.6200431044026</v>
+        <v>319.2854401259028</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>25.00550949856681</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B161" t="n">
-        <v>77.78639917049028</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C161" t="n">
-        <v>144.1328738323626</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D161" t="n">
-        <v>161.1917261208974</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E161" t="n">
-        <v>182.2879421671017</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F161" t="n">
-        <v>203.3841582133061</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G161" t="n">
-        <v>224.4803742792003</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H161" t="n">
-        <v>245.5765903450944</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I161" t="n">
-        <v>266.6728063912988</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J161" t="n">
-        <v>280.6200431044026</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>25.00550949856681</v>
+        <v>31.33171567004917</v>
       </c>
       <c r="B162" t="n">
-        <v>77.78639917049028</v>
+        <v>97.93868533117683</v>
       </c>
       <c r="C162" t="n">
-        <v>144.1328738323626</v>
+        <v>182.13585164161</v>
       </c>
       <c r="D162" t="n">
-        <v>161.1917261208974</v>
+        <v>185.1114082734093</v>
       </c>
       <c r="E162" t="n">
-        <v>182.2879421671017</v>
+        <v>215.6172541183498</v>
       </c>
       <c r="F162" t="n">
-        <v>203.3841582133061</v>
+        <v>246.1230999632903</v>
       </c>
       <c r="G162" t="n">
-        <v>224.4803742792003</v>
+        <v>276.6289458367029</v>
       </c>
       <c r="H162" t="n">
-        <v>245.5765903450944</v>
+        <v>307.1347917101156</v>
       </c>
       <c r="I162" t="n">
-        <v>266.6728063912988</v>
+        <v>337.6406375550561</v>
       </c>
       <c r="J162" t="n">
-        <v>280.6200431044026</v>
+        <v>357.0140621068473</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>25.00550949856681</v>
+        <v>27.35221967977619</v>
       </c>
       <c r="B163" t="n">
-        <v>77.78639917049028</v>
+        <v>85.19821519789829</v>
       </c>
       <c r="C163" t="n">
-        <v>144.1328738323626</v>
+        <v>158.0229193353552</v>
       </c>
       <c r="D163" t="n">
-        <v>161.1917261208974</v>
+        <v>182.9498940016072</v>
       </c>
       <c r="E163" t="n">
-        <v>182.2879421671017</v>
+        <v>208.9265609644308</v>
       </c>
       <c r="F163" t="n">
-        <v>203.3841582133061</v>
+        <v>234.9032279272544</v>
       </c>
       <c r="G163" t="n">
-        <v>224.4803742792003</v>
+        <v>260.8798949143229</v>
       </c>
       <c r="H163" t="n">
-        <v>245.5765903450944</v>
+        <v>286.8565619013914</v>
       </c>
       <c r="I163" t="n">
-        <v>266.6728063912988</v>
+        <v>312.833228864215</v>
       </c>
       <c r="J163" t="n">
-        <v>280.6200431044026</v>
+        <v>330.1546680011149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>25.00550949856681</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B164" t="n">
-        <v>77.78639917049028</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C164" t="n">
-        <v>144.1328738323626</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D164" t="n">
-        <v>161.1917261208974</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E164" t="n">
-        <v>182.2879421671017</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F164" t="n">
-        <v>203.3841582133061</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G164" t="n">
-        <v>224.4803742792003</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H164" t="n">
-        <v>245.5765903450944</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I164" t="n">
-        <v>266.6728063912988</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J164" t="n">
-        <v>280.6200431044026</v>
+        <v>307.2422639720198</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>25.00550949856681</v>
+        <v>25.70254500558018</v>
       </c>
       <c r="B165" t="n">
-        <v>77.78639917049028</v>
+        <v>79.93400734027776</v>
       </c>
       <c r="C165" t="n">
-        <v>144.1328738323626</v>
+        <v>148.0832476473803</v>
       </c>
       <c r="D165" t="n">
-        <v>161.1917261208974</v>
+        <v>175.523729952975</v>
       </c>
       <c r="E165" t="n">
-        <v>182.2879421671017</v>
+        <v>198.7327298544057</v>
       </c>
       <c r="F165" t="n">
-        <v>203.3841582133061</v>
+        <v>221.9417297558364</v>
       </c>
       <c r="G165" t="n">
-        <v>224.4803742792003</v>
+        <v>245.1507296789288</v>
       </c>
       <c r="H165" t="n">
-        <v>245.5765903450944</v>
+        <v>268.3597296020213</v>
       </c>
       <c r="I165" t="n">
-        <v>266.6728063912988</v>
+        <v>291.5687295034519</v>
       </c>
       <c r="J165" t="n">
-        <v>280.6200431044026</v>
+        <v>307.2422639720198</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>31.33171567004917</v>
+      </c>
+      <c r="B166" t="n">
+        <v>97.93868533117683</v>
+      </c>
+      <c r="C166" t="n">
+        <v>182.13585164161</v>
+      </c>
+      <c r="D166" t="n">
+        <v>185.1114082734093</v>
+      </c>
+      <c r="E166" t="n">
+        <v>215.6172541183498</v>
+      </c>
+      <c r="F166" t="n">
+        <v>246.1230999632903</v>
+      </c>
+      <c r="G166" t="n">
+        <v>276.6289458367029</v>
+      </c>
+      <c r="H166" t="n">
+        <v>307.1347917101156</v>
+      </c>
+      <c r="I166" t="n">
+        <v>337.6406375550561</v>
+      </c>
+      <c r="J166" t="n">
+        <v>357.0140621068473</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>31.33171567004917</v>
+      </c>
+      <c r="B167" t="n">
+        <v>97.93868533117683</v>
+      </c>
+      <c r="C167" t="n">
+        <v>182.13585164161</v>
+      </c>
+      <c r="D167" t="n">
+        <v>185.1114082734093</v>
+      </c>
+      <c r="E167" t="n">
+        <v>215.6172541183498</v>
+      </c>
+      <c r="F167" t="n">
+        <v>246.1230999632903</v>
+      </c>
+      <c r="G167" t="n">
+        <v>276.6289458367029</v>
+      </c>
+      <c r="H167" t="n">
+        <v>307.1347917101156</v>
+      </c>
+      <c r="I167" t="n">
+        <v>337.6406375550561</v>
+      </c>
+      <c r="J167" t="n">
+        <v>357.0140621068473</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>31.33171567004917</v>
+      </c>
+      <c r="B168" t="n">
+        <v>97.93868533117683</v>
+      </c>
+      <c r="C168" t="n">
+        <v>182.13585164161</v>
+      </c>
+      <c r="D168" t="n">
+        <v>185.1114082734093</v>
+      </c>
+      <c r="E168" t="n">
+        <v>215.6172541183498</v>
+      </c>
+      <c r="F168" t="n">
+        <v>246.1230999632903</v>
+      </c>
+      <c r="G168" t="n">
+        <v>276.6289458367029</v>
+      </c>
+      <c r="H168" t="n">
+        <v>307.1347917101156</v>
+      </c>
+      <c r="I168" t="n">
+        <v>337.6406375550561</v>
+      </c>
+      <c r="J168" t="n">
+        <v>357.0140621068473</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>27.35221967977619</v>
+      </c>
+      <c r="B169" t="n">
+        <v>85.19821519789829</v>
+      </c>
+      <c r="C169" t="n">
+        <v>158.0229193353552</v>
+      </c>
+      <c r="D169" t="n">
+        <v>182.9498940016072</v>
+      </c>
+      <c r="E169" t="n">
+        <v>208.9265609644308</v>
+      </c>
+      <c r="F169" t="n">
+        <v>234.9032279272544</v>
+      </c>
+      <c r="G169" t="n">
+        <v>260.8798949143229</v>
+      </c>
+      <c r="H169" t="n">
+        <v>286.8565619013914</v>
+      </c>
+      <c r="I169" t="n">
+        <v>312.833228864215</v>
+      </c>
+      <c r="J169" t="n">
+        <v>330.1546680011149</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>30.88871143787594</v>
+      </c>
+      <c r="B170" t="n">
+        <v>96.41329738660446</v>
+      </c>
+      <c r="C170" t="n">
+        <v>179.1031576527672</v>
+      </c>
+      <c r="D170" t="n">
+        <v>201.5133128547187</v>
+      </c>
+      <c r="E170" t="n">
+        <v>233.0027797885515</v>
+      </c>
+      <c r="F170" t="n">
+        <v>264.4922467223843</v>
+      </c>
+      <c r="G170" t="n">
+        <v>295.9817136856072</v>
+      </c>
+      <c r="H170" t="n">
+        <v>327.4711806488302</v>
+      </c>
+      <c r="I170" t="n">
+        <v>358.9606475826629</v>
+      </c>
+      <c r="J170" t="n">
+        <v>379.6862739356196</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>32.71050619192557</v>
+      </c>
+      <c r="B171" t="n">
+        <v>102.2743355308283</v>
+      </c>
+      <c r="C171" t="n">
+        <v>190.2346933008347</v>
+      </c>
+      <c r="D171" t="n">
+        <v>194.0848472557691</v>
+      </c>
+      <c r="E171" t="n">
+        <v>226.5775729570578</v>
+      </c>
+      <c r="F171" t="n">
+        <v>259.0702986583464</v>
+      </c>
+      <c r="G171" t="n">
+        <v>291.5630243899615</v>
+      </c>
+      <c r="H171" t="n">
+        <v>324.0557501215768</v>
+      </c>
+      <c r="I171" t="n">
+        <v>356.5484758228653</v>
+      </c>
+      <c r="J171" t="n">
+        <v>377.2304025314221</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>27.21706900154975</v>
+      </c>
+      <c r="B172" t="n">
+        <v>84.80784590757493</v>
+      </c>
+      <c r="C172" t="n">
+        <v>157.3416726244554</v>
+      </c>
+      <c r="D172" t="n">
+        <v>172.3895062586104</v>
+      </c>
+      <c r="E172" t="n">
+        <v>196.9633400077095</v>
+      </c>
+      <c r="F172" t="n">
+        <v>221.5371737568085</v>
+      </c>
+      <c r="G172" t="n">
+        <v>246.1110075288431</v>
+      </c>
+      <c r="H172" t="n">
+        <v>270.6848413008777</v>
+      </c>
+      <c r="I172" t="n">
+        <v>295.2586750499767</v>
+      </c>
+      <c r="J172" t="n">
+        <v>311.3343754105554</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>27.21706900154975</v>
+      </c>
+      <c r="B173" t="n">
+        <v>84.80784590757493</v>
+      </c>
+      <c r="C173" t="n">
+        <v>157.3416726244554</v>
+      </c>
+      <c r="D173" t="n">
+        <v>172.3895062586104</v>
+      </c>
+      <c r="E173" t="n">
+        <v>196.9633400077095</v>
+      </c>
+      <c r="F173" t="n">
+        <v>221.5371737568085</v>
+      </c>
+      <c r="G173" t="n">
+        <v>246.1110075288431</v>
+      </c>
+      <c r="H173" t="n">
+        <v>270.6848413008777</v>
+      </c>
+      <c r="I173" t="n">
+        <v>295.2586750499767</v>
+      </c>
+      <c r="J173" t="n">
+        <v>311.3343754105554</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>31.33171567004917</v>
+      </c>
+      <c r="B174" t="n">
+        <v>97.93868533117683</v>
+      </c>
+      <c r="C174" t="n">
+        <v>182.13585164161</v>
+      </c>
+      <c r="D174" t="n">
+        <v>185.1114082734093</v>
+      </c>
+      <c r="E174" t="n">
+        <v>215.6172541183498</v>
+      </c>
+      <c r="F174" t="n">
+        <v>246.1230999632903</v>
+      </c>
+      <c r="G174" t="n">
+        <v>276.6289458367029</v>
+      </c>
+      <c r="H174" t="n">
+        <v>307.1347917101156</v>
+      </c>
+      <c r="I174" t="n">
+        <v>337.6406375550561</v>
+      </c>
+      <c r="J174" t="n">
+        <v>357.0140621068473</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>30.88871143787594</v>
+      </c>
+      <c r="B175" t="n">
+        <v>96.41329738660446</v>
+      </c>
+      <c r="C175" t="n">
+        <v>179.1031576527672</v>
+      </c>
+      <c r="D175" t="n">
+        <v>201.5133128547187</v>
+      </c>
+      <c r="E175" t="n">
+        <v>233.0027797885515</v>
+      </c>
+      <c r="F175" t="n">
+        <v>264.4922467223843</v>
+      </c>
+      <c r="G175" t="n">
+        <v>295.9817136856072</v>
+      </c>
+      <c r="H175" t="n">
+        <v>327.4711806488302</v>
+      </c>
+      <c r="I175" t="n">
+        <v>358.9606475826629</v>
+      </c>
+      <c r="J175" t="n">
+        <v>379.6862739356196</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>30.88871143787594</v>
+      </c>
+      <c r="B176" t="n">
+        <v>96.41329738660446</v>
+      </c>
+      <c r="C176" t="n">
+        <v>179.1031576527672</v>
+      </c>
+      <c r="D176" t="n">
+        <v>201.5133128547187</v>
+      </c>
+      <c r="E176" t="n">
+        <v>233.0027797885515</v>
+      </c>
+      <c r="F176" t="n">
+        <v>264.4922467223843</v>
+      </c>
+      <c r="G176" t="n">
+        <v>295.9817136856072</v>
+      </c>
+      <c r="H176" t="n">
+        <v>327.4711806488302</v>
+      </c>
+      <c r="I176" t="n">
+        <v>358.9606475826629</v>
+      </c>
+      <c r="J176" t="n">
+        <v>379.6862739356196</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>27.21706900154975</v>
+      </c>
+      <c r="B177" t="n">
+        <v>84.80784590757493</v>
+      </c>
+      <c r="C177" t="n">
+        <v>157.3416726244554</v>
+      </c>
+      <c r="D177" t="n">
+        <v>172.3895062586104</v>
+      </c>
+      <c r="E177" t="n">
+        <v>196.9633400077095</v>
+      </c>
+      <c r="F177" t="n">
+        <v>221.5371737568085</v>
+      </c>
+      <c r="G177" t="n">
+        <v>246.1110075288431</v>
+      </c>
+      <c r="H177" t="n">
+        <v>270.6848413008777</v>
+      </c>
+      <c r="I177" t="n">
+        <v>295.2586750499767</v>
+      </c>
+      <c r="J177" t="n">
+        <v>311.3343754105554</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>31.33171567004917</v>
+      </c>
+      <c r="B178" t="n">
+        <v>97.93868533117683</v>
+      </c>
+      <c r="C178" t="n">
+        <v>182.13585164161</v>
+      </c>
+      <c r="D178" t="n">
+        <v>185.1114082734093</v>
+      </c>
+      <c r="E178" t="n">
+        <v>215.6172541183498</v>
+      </c>
+      <c r="F178" t="n">
+        <v>246.1230999632903</v>
+      </c>
+      <c r="G178" t="n">
+        <v>276.6289458367029</v>
+      </c>
+      <c r="H178" t="n">
+        <v>307.1347917101156</v>
+      </c>
+      <c r="I178" t="n">
+        <v>337.6406375550561</v>
+      </c>
+      <c r="J178" t="n">
+        <v>357.0140621068473</v>
       </c>
     </row>
   </sheetData>
